--- a/routes/Vòng1.xlsx
+++ b/routes/Vòng1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,56 +419,206 @@
         <v>Số điện thoại</v>
       </c>
       <c r="F1" t="str">
-        <v>Địa chỉ</v>
+        <v>Facebook</v>
       </c>
       <c r="G1" t="str">
-        <v>Nơi học/ làm việc</v>
+        <v>Trường đại học</v>
       </c>
       <c r="H1" t="str">
+        <v>Sinh viên</v>
+      </c>
+      <c r="I1" t="str">
         <v>Chuyên ngành</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
+        <v>Thành tích, hoạt động nổi bật</v>
+      </c>
+      <c r="K1" t="str">
         <v>CV1</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>Có Team</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Tên nhóm</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Họ và tên 2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Giới tính 2</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Ngày sinh 2</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Email 2</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Số điện thoại 2</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Facebook 2</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Trường đại học 2</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Sinh viên 2</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Chuyên ngành 2</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Thành tích, hoạt động nổi bật 2</v>
+      </c>
+      <c r="X1" t="str">
+        <v>CV2</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Họ và tên 3</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Giới tính 3</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Ngày sinh 3</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Email 3</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Số điện thoại 3</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Facebook 3</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Trường đại học 3</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>Sinh viên 3</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Chuyên ngành 3</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>Thành tích, hoạt động nổi bật 3</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>CV3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Lê Công Bách</v>
+        <v>Sample</v>
       </c>
       <c r="B2" t="str">
-        <v>Nam</v>
+        <v>Khác</v>
       </c>
       <c r="C2" t="str">
-        <v>2022-04-21</v>
+        <v>2022-04-23</v>
       </c>
       <c r="D2" t="str">
-        <v>bachlamsung123@gmail.com</v>
+        <v>sample@email.com</v>
       </c>
       <c r="E2" t="str">
-        <v>0981583898</v>
+        <v>00000000000</v>
       </c>
       <c r="F2" t="str">
-        <v>Tổ 3, Phường Chiềng Lề</v>
+        <v>https://fb.com</v>
       </c>
       <c r="G2" t="str">
-        <v>fpt</v>
+        <v>Sample University</v>
       </c>
       <c r="H2" t="str">
-        <v>ktpm</v>
+        <v>Năm 1</v>
       </c>
       <c r="I2" t="str">
-        <v>uploads\1650543557765-475873022-Le-Cong-Bach-TopCV.vn-210422.163453.pdf</v>
+        <v>Sample Major</v>
       </c>
       <c r="J2" t="str">
-        <v>https://gecftu.com/manager/cv/uploads/Chưa</v>
+        <v>Sample Achievement</v>
+      </c>
+      <c r="K2" t="str">
+        <v>https://gecftu.com/manager/cv/uploads\1650701970888-104052759-SampleCV.pdf</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Rồi</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Sample Team</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Sample 2</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>sample2@email.com</v>
+      </c>
+      <c r="R2" t="str">
+        <v>0000000000</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://www.fb.com</v>
+      </c>
+      <c r="T2" t="str">
+        <v>Sample University 2</v>
+      </c>
+      <c r="U2" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V2" t="str">
+        <v>Sample Major 2</v>
+      </c>
+      <c r="W2" t="str">
+        <v>Sample achievement</v>
+      </c>
+      <c r="X2" t="str">
+        <v>https://gecftu.com/manager/cv/uploads\1650702013769-603311779-SampleCV.pdf</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>Sample 3</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>sample3@email.com</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>0000000000</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>https://fb.com/sample3</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>Sample University 3</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG2" t="str">
+        <v>Sample Major 3</v>
+      </c>
+      <c r="AH2" t="str">
+        <v>Sample achievement</v>
+      </c>
+      <c r="AI2" t="str">
+        <v>https://gecftu.com/manager/cv/uploads\1650702013781-312483526-SampleCV.pdf</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/routes/Vòng1.xlsx
+++ b/routes/Vòng1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +517,7 @@
         <v>Khác</v>
       </c>
       <c r="C2" t="str">
-        <v>2022-04-23</v>
+        <v>23/04/2022</v>
       </c>
       <c r="D2" t="str">
         <v>sample@email.com</v>
@@ -541,7 +541,7 @@
         <v>Sample Achievement</v>
       </c>
       <c r="K2" t="str">
-        <v>https://gecftu.com/manager/cv/uploads\1650701970888-104052759-SampleCV.pdf</v>
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads\1650701970888-104052759-SampleCV.pdf</v>
       </c>
       <c r="L2" t="str">
         <v>Rồi</v>
@@ -556,7 +556,7 @@
         <v>Khác</v>
       </c>
       <c r="P2" t="str">
-        <v>2022-04-23</v>
+        <v>23/04/2022</v>
       </c>
       <c r="Q2" t="str">
         <v>sample2@email.com</v>
@@ -580,7 +580,7 @@
         <v>Sample achievement</v>
       </c>
       <c r="X2" t="str">
-        <v>https://gecftu.com/manager/cv/uploads\1650702013769-603311779-SampleCV.pdf</v>
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads\1650702013769-603311779-SampleCV.pdf</v>
       </c>
       <c r="Y2" t="str">
         <v>Sample 3</v>
@@ -589,7 +589,7 @@
         <v>Khác</v>
       </c>
       <c r="AA2" t="str">
-        <v>2022-04-23</v>
+        <v>23/04/2022</v>
       </c>
       <c r="AB2" t="str">
         <v>sample3@email.com</v>
@@ -613,12 +613,129 @@
         <v>Sample achievement</v>
       </c>
       <c r="AI2" t="str">
-        <v>https://gecftu.com/manager/cv/uploads\1650702013781-312483526-SampleCV.pdf</v>
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads\1650702013781-312483526-SampleCV.pdf</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>S</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="C3" t="str">
+        <v>23/04/2022</v>
+      </c>
+      <c r="D3" t="str">
+        <v>sample@email.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>00000000000</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://fb.com</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Sample University</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Sample Major</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Sample Achievement</v>
+      </c>
+      <c r="K3" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1650732379294-689204668-SampleCV.pdf</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Chưa</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>pham ha trang</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C4" t="str">
+        <v>30/03/2022</v>
+      </c>
+      <c r="D4" t="str">
+        <v>phamhatrang139@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0987826076</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://docs.google.com/document/d/1biNlXE4157pIZ_4wOkmf92QF7KF43o-3n_dPa78jFCw/edit?fbclid=IwAR1KW9_BZFZk8g-8uyocTYj5zpH27t7fzjxgXuk5VHeexbg3k_gCStXp9l4</v>
+      </c>
+      <c r="G4" t="str">
+        <v>f</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I4" t="str">
+        <v>f</v>
+      </c>
+      <c r="J4" t="str">
+        <v>fs</v>
+      </c>
+      <c r="K4" t="str">
+        <v>-</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Chưa</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>Sample</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C5" t="str">
+        <v>25/04/2022</v>
+      </c>
+      <c r="D5" t="str">
+        <v>sample@email.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>00000000000</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://fb.com</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Sample University</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Sample Major</v>
+      </c>
+      <c r="J5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sample:_x000d_
+- Test 1_x000d_
+- Test 2_x000d_
+- Test 3</v>
+      </c>
+      <c r="K5" t="str">
+        <v>-</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Chưa</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/routes/Vòng1.xlsx
+++ b/routes/Vòng1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,37 +618,37 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>S</v>
+        <v>pham ha trang</v>
       </c>
       <c r="B3" t="str">
-        <v>Khác</v>
+        <v>Nữ</v>
       </c>
       <c r="C3" t="str">
-        <v>23/04/2022</v>
+        <v>30/03/2022</v>
       </c>
       <c r="D3" t="str">
-        <v>sample@email.com</v>
+        <v>phamhatrang139@gmail.com</v>
       </c>
       <c r="E3" t="str">
-        <v>00000000000</v>
+        <v>0987826076</v>
       </c>
       <c r="F3" t="str">
-        <v>https://fb.com</v>
+        <v>https://docs.google.com/document/d/1biNlXE4157pIZ_4wOkmf92QF7KF43o-3n_dPa78jFCw/edit?fbclid=IwAR1KW9_BZFZk8g-8uyocTYj5zpH27t7fzjxgXuk5VHeexbg3k_gCStXp9l4</v>
       </c>
       <c r="G3" t="str">
-        <v>Sample University</v>
+        <v>f</v>
       </c>
       <c r="H3" t="str">
-        <v>Năm 1</v>
+        <v>Năm 2</v>
       </c>
       <c r="I3" t="str">
-        <v>Sample Major</v>
+        <v>f</v>
       </c>
       <c r="J3" t="str">
-        <v>Sample Achievement</v>
+        <v>fs</v>
       </c>
       <c r="K3" t="str">
-        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1650732379294-689204668-SampleCV.pdf</v>
+        <v>-</v>
       </c>
       <c r="L3" t="str">
         <v>Chưa</v>
@@ -656,86 +656,129 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>pham ha trang</v>
-      </c>
-      <c r="B4" t="str">
+        <v>Chưa</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Nguyễn Thị Khánh Ly</v>
+      </c>
+      <c r="B5" t="str">
         <v>Nữ</v>
-      </c>
-      <c r="C4" t="str">
-        <v>30/03/2022</v>
-      </c>
-      <c r="D4" t="str">
-        <v>phamhatrang139@gmail.com</v>
-      </c>
-      <c r="E4" t="str">
-        <v>0987826076</v>
-      </c>
-      <c r="F4" t="str">
-        <v>https://docs.google.com/document/d/1biNlXE4157pIZ_4wOkmf92QF7KF43o-3n_dPa78jFCw/edit?fbclid=IwAR1KW9_BZFZk8g-8uyocTYj5zpH27t7fzjxgXuk5VHeexbg3k_gCStXp9l4</v>
-      </c>
-      <c r="G4" t="str">
-        <v>f</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Năm 2</v>
-      </c>
-      <c r="I4" t="str">
-        <v>f</v>
-      </c>
-      <c r="J4" t="str">
-        <v>fs</v>
-      </c>
-      <c r="K4" t="str">
-        <v>-</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Chưa</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>Sample</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Nam</v>
       </c>
       <c r="C5" t="str">
         <v>25/04/2022</v>
       </c>
       <c r="D5" t="str">
-        <v>sample@email.com</v>
+        <v>nguyenthikhanhly2k2@gmail.com</v>
       </c>
       <c r="E5" t="str">
-        <v>00000000000</v>
+        <v>0971118451</v>
       </c>
       <c r="F5" t="str">
-        <v>https://fb.com</v>
+        <v>https://www.facebook.com/khanhly/</v>
       </c>
       <c r="G5" t="str">
-        <v>Sample University</v>
+        <v>Jjsjdjdmcmcm</v>
       </c>
       <c r="H5" t="str">
-        <v>Năm 1</v>
+        <v>Năm 3</v>
       </c>
       <c r="I5" t="str">
-        <v>Sample Major</v>
-      </c>
-      <c r="J5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Sample:_x000d_
-- Test 1_x000d_
-- Test 2_x000d_
-- Test 3</v>
+        <v>Hzjxjxj</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Hxjxjxj</v>
       </c>
       <c r="K5" t="str">
         <v>-</v>
       </c>
       <c r="L5" t="str">
+        <v>Chưa</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Nguyễn Thị Khánh Ly</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C6" t="str">
+        <v>06/10/2002</v>
+      </c>
+      <c r="D6" t="str">
+        <v>nguyenthikhanhly2k2@gmail.com</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0971118154</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://www.facebook.com/khanhlyy02/</v>
+      </c>
+      <c r="G6" t="str">
+        <v>trường Đại học Ngoại thương</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="J6" t="str" xml:space="preserve">
+        <v xml:space="preserve">GPA hiện tại là 3.65 (cập nhật ngày 25/4/2022)_x000d_
+có kiến thức nền về data analysis và từng tham gia một số cuộc thi về business case nhưng kết quả không được khả quan_x000d_
+_x000d_
+</v>
+      </c>
+      <c r="K6" t="str">
+        <v>-</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Chưa</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Domino</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C7" t="str">
+        <v>08/01/2002</v>
+      </c>
+      <c r="D7" t="str">
+        <v>clapclapchacha@gmail.com</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0938249393</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://www.facebook.com/</v>
+      </c>
+      <c r="G7" t="str">
+        <v>FTU</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I7" t="str">
+        <v>KTDN</v>
+      </c>
+      <c r="J7" t="str">
+        <v>No</v>
+      </c>
+      <c r="K7" t="str">
+        <v>-</v>
+      </c>
+      <c r="L7" t="str">
         <v>Chưa</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/routes/Vòng1.xlsx
+++ b/routes/Vòng1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,7 +544,7 @@
         <v>https://gcontest2022.gecftu.com/manager/cv/uploads\1650701970888-104052759-SampleCV.pdf</v>
       </c>
       <c r="L2" t="str">
-        <v>Rồi</v>
+        <v>Đã có team</v>
       </c>
       <c r="M2" t="str">
         <v>Sample Team</v>
@@ -618,167 +618,6856 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>pham ha trang</v>
+        <v>Nguyễn Thị Khánh Ly</v>
       </c>
       <c r="B3" t="str">
         <v>Nữ</v>
       </c>
       <c r="C3" t="str">
-        <v>30/03/2022</v>
+        <v>25/04/2022</v>
       </c>
       <c r="D3" t="str">
-        <v>phamhatrang139@gmail.com</v>
+        <v>nguyenthikhanhly2k2@gmail.com</v>
       </c>
       <c r="E3" t="str">
-        <v>0987826076</v>
+        <v>0971118451</v>
       </c>
       <c r="F3" t="str">
-        <v>https://docs.google.com/document/d/1biNlXE4157pIZ_4wOkmf92QF7KF43o-3n_dPa78jFCw/edit?fbclid=IwAR1KW9_BZFZk8g-8uyocTYj5zpH27t7fzjxgXuk5VHeexbg3k_gCStXp9l4</v>
+        <v>https://www.facebook.com/khanhly/</v>
       </c>
       <c r="G3" t="str">
-        <v>f</v>
+        <v>Jjsjdjdmcmcm</v>
       </c>
       <c r="H3" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Hzjxjxj</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Hxjxjxj</v>
+      </c>
+      <c r="K3" t="str">
+        <v>-</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>Nguyễn Thị Khánh Ly</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C4" t="str">
+        <v>06/10/2002</v>
+      </c>
+      <c r="D4" t="str">
+        <v>nguyenthikhanhly2k2@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0971118154</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://www.facebook.com/khanhlyy02/</v>
+      </c>
+      <c r="G4" t="str">
+        <v>trường Đại học Ngoại thương</v>
+      </c>
+      <c r="H4" t="str">
         <v>Năm 2</v>
       </c>
-      <c r="I3" t="str">
-        <v>f</v>
-      </c>
-      <c r="J3" t="str">
-        <v>fs</v>
-      </c>
-      <c r="K3" t="str">
-        <v>-</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Chưa</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Chưa</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Nguyễn Thị Khánh Ly</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Nữ</v>
-      </c>
-      <c r="C5" t="str">
-        <v>25/04/2022</v>
-      </c>
-      <c r="D5" t="str">
-        <v>nguyenthikhanhly2k2@gmail.com</v>
-      </c>
-      <c r="E5" t="str">
-        <v>0971118451</v>
-      </c>
-      <c r="F5" t="str">
-        <v>https://www.facebook.com/khanhly/</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Jjsjdjdmcmcm</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Năm 3</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Hzjxjxj</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Hxjxjxj</v>
-      </c>
-      <c r="K5" t="str">
-        <v>-</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Chưa</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>Nguyễn Thị Khánh Ly</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Nữ</v>
-      </c>
-      <c r="C6" t="str">
-        <v>06/10/2002</v>
-      </c>
-      <c r="D6" t="str">
-        <v>nguyenthikhanhly2k2@gmail.com</v>
-      </c>
-      <c r="E6" t="str">
-        <v>0971118154</v>
-      </c>
-      <c r="F6" t="str">
-        <v>https://www.facebook.com/khanhlyy02/</v>
-      </c>
-      <c r="G6" t="str">
-        <v>trường Đại học Ngoại thương</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Năm 2</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="I4" t="str">
         <v>Kinh tế quốc tế</v>
       </c>
-      <c r="J6" t="str" xml:space="preserve">
+      <c r="J4" t="str" xml:space="preserve">
         <v xml:space="preserve">GPA hiện tại là 3.65 (cập nhật ngày 25/4/2022)_x000d_
 có kiến thức nền về data analysis và từng tham gia một số cuộc thi về business case nhưng kết quả không được khả quan_x000d_
 _x000d_
 </v>
       </c>
+      <c r="K4" t="str">
+        <v>-</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Domino</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C5" t="str">
+        <v>08/01/2002</v>
+      </c>
+      <c r="D5" t="str">
+        <v>clapclapchacha@gmail.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0938249393</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://www.facebook.com/</v>
+      </c>
+      <c r="G5" t="str">
+        <v>FTU</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I5" t="str">
+        <v>KTDN</v>
+      </c>
+      <c r="J5" t="str">
+        <v>No</v>
+      </c>
+      <c r="K5" t="str">
+        <v>-</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>vũ bảo nhi</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C6" t="str">
+        <v>07/07/2001</v>
+      </c>
+      <c r="D6" t="str">
+        <v>baonhixinhxinh@gmail.com</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0912793182</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://www.facebook.com/</v>
+      </c>
+      <c r="G6" t="str">
+        <v>neu</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I6" t="str">
+        <v>kinh tế</v>
+      </c>
+      <c r="J6" t="str">
+        <v>sinh viên 5 tốt, sao tháng 1</v>
+      </c>
       <c r="K6" t="str">
-        <v>-</v>
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1650986912034-803521982-Đề-cương-ôn-tập-môn-Linux2021.pdf</v>
       </c>
       <c r="L6" t="str">
-        <v>Chưa</v>
+        <v>Chưa có team</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Domino</v>
+        <v>Trần Thị Ngân Huyền</v>
       </c>
       <c r="B7" t="str">
-        <v>Nam</v>
+        <v>Nữ</v>
       </c>
       <c r="C7" t="str">
-        <v>08/01/2002</v>
+        <v>02/09/2002</v>
       </c>
       <c r="D7" t="str">
-        <v>clapclapchacha@gmail.com</v>
+        <v>nghyyen.tt02@gmail.com</v>
       </c>
       <c r="E7" t="str">
-        <v>0938249393</v>
+        <v>0967658375</v>
       </c>
       <c r="F7" t="str">
-        <v>https://www.facebook.com/</v>
+        <v>https://www.facebook.com/nghyyen.tt02/</v>
       </c>
       <c r="G7" t="str">
-        <v>FTU</v>
+        <v>Đại học Bách Khoa Hà Nội</v>
       </c>
       <c r="H7" t="str">
         <v>Năm 2</v>
       </c>
       <c r="I7" t="str">
-        <v>KTDN</v>
+        <v>Phân tích kinh doanh</v>
       </c>
       <c r="J7" t="str">
-        <v>No</v>
+        <v>Chi tiết xem trong CV</v>
       </c>
       <c r="K7" t="str">
-        <v>-</v>
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651004976172-529474770-CV_ITEM_TranThiNganHuyen.pdf</v>
       </c>
       <c r="L7" t="str">
-        <v>Chưa</v>
+        <v>Đã có team</v>
+      </c>
+      <c r="M7" t="str">
+        <v>ITEM</v>
+      </c>
+      <c r="N7" t="str">
+        <v>Nguyễn Huy Hải</v>
+      </c>
+      <c r="O7" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P7" t="str">
+        <v>12/01/2002</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>hainguyenhuy2002@gmail.com</v>
+      </c>
+      <c r="R7" t="str">
+        <v>0945268776</v>
+      </c>
+      <c r="S7" t="str">
+        <v>https://www.facebook.com/hainguyenhuy2002</v>
+      </c>
+      <c r="T7" t="str">
+        <v>Đại học Bách Khoa Hà Nội</v>
+      </c>
+      <c r="U7" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V7" t="str">
+        <v>Khoa học dữ liệu và Trí tuệ nhân tạo</v>
+      </c>
+      <c r="W7" t="str">
+        <v>Chi tiết xem trong CV</v>
+      </c>
+      <c r="X7" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651005045314-733226859-CV_ITEM_NguyenHuyHai.pdf</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>Nguyễn Hoàng Tiến</v>
+      </c>
+      <c r="Z7" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA7" t="str">
+        <v>21/10/2002</v>
+      </c>
+      <c r="AB7" t="str">
+        <v>nguyenhoangtien21102002@gmail.com</v>
+      </c>
+      <c r="AC7" t="str">
+        <v>0949866908</v>
+      </c>
+      <c r="AD7" t="str">
+        <v>https://www.facebook.com/HoangTienNguyen.Victor/</v>
+      </c>
+      <c r="AE7" t="str">
+        <v>Đại học Bách Khoa Hà Nội</v>
+      </c>
+      <c r="AF7" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG7" t="str">
+        <v>Khoa học dữ liệu và Trí tuệ nhân tạo</v>
+      </c>
+      <c r="AH7" t="str">
+        <v>Chi tiết xem trong CV</v>
+      </c>
+      <c r="AI7" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651005046243-544532836-CV_ITEM_NguyenHoangTien.pdf</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>-</v>
+      </c>
+      <c r="B8" t="str">
+        <v>-</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Invalid date</v>
+      </c>
+      <c r="D8" t="str">
+        <v>-</v>
+      </c>
+      <c r="E8" t="str">
+        <v>-</v>
+      </c>
+      <c r="F8" t="str">
+        <v>-</v>
+      </c>
+      <c r="G8" t="str">
+        <v>-</v>
+      </c>
+      <c r="H8" t="str">
+        <v>-</v>
+      </c>
+      <c r="I8" t="str">
+        <v>-</v>
+      </c>
+      <c r="J8" t="str">
+        <v>-</v>
+      </c>
+      <c r="K8" t="str">
+        <v>-</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M8" t="str">
+        <v xml:space="preserve">_x0008_PLAY4FUN </v>
+      </c>
+      <c r="N8" t="str">
+        <v>Châu Ngọc Trâm Anh</v>
+      </c>
+      <c r="O8" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P8" t="str">
+        <v>15/05/2003</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>tramanhmsc@gmail.com</v>
+      </c>
+      <c r="R8" t="str">
+        <v>0932000141</v>
+      </c>
+      <c r="S8" t="str">
+        <v>https://www.facebook.com/chau.n.tramanh</v>
+      </c>
+      <c r="T8" t="str">
+        <v>FTU2</v>
+      </c>
+      <c r="U8" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V8" t="str">
+        <v>Kinh tế đối ngoại</v>
+      </c>
+      <c r="W8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Thành viên ban Nội dung CLB Logistics FTU2_x000d_
++ Tham gia viết Báo cáo về chủ đề _x0008_E-commerce cho cuộc thi SCMission 2022_x000d_
++Trưởng nhóm mảng tìm venue Xuân Tình Nguyên 2022 do câu lạc bộ Logistics tổ chức</v>
+      </c>
+      <c r="X8" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>Nguyễn Thùy Minh Châu</v>
+      </c>
+      <c r="Z8" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA8" t="str">
+        <v>17/06/2003</v>
+      </c>
+      <c r="AB8" t="str">
+        <v>minhchau.nguyenthuy.lsc@gmail.com</v>
+      </c>
+      <c r="AC8" t="str">
+        <v>0935573035</v>
+      </c>
+      <c r="AD8" t="str">
+        <v>https://www.facebook.com/jbbaembgmz</v>
+      </c>
+      <c r="AE8" t="str">
+        <v>FTU2</v>
+      </c>
+      <c r="AF8" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG8" t="str">
+        <v>Logistics &amp; Quản lý chuỗi cung ứng</v>
+      </c>
+      <c r="AH8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Thành viên ban Nội dung CLB Logistics FTU2_x000d_
++ Tham gia viết Báo cáo về chủ đề Sourcing cho cuộc thi SCMission 2022_x000d_
++Trưởng nhóm mảng nội dung tổ chức tiệc cuối năm LSC</v>
+      </c>
+      <c r="AI8" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>Nguyễn Duy Vũ</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C9" t="str">
+        <v>25/03/2001</v>
+      </c>
+      <c r="D9" t="str">
+        <v>nduyvu253@gmail.com</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0962532001</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://www.facebook.com/duy.vu.253/</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Học viện Tài chính</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Tin học tài chính</v>
+      </c>
+      <c r="J9" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Giải nhì cấp khoa NCKH với chủ đề "Ứng dụng Business Intelligence trong doanh nghiệp") _x000d_
+- Top 14/150 đội thi chung cuộc Business Intelligence 5 (Đại học Kinh Tế - Luật TP HCM)_x000d_
+- Top 6 chung cuộc cuộc thi You Can 10 ( Học viện Tài chính)_x000d_
+- Top 6 chung cuộc cuộc thi DataGottalent (Đại học kinh tế ĐHQG Đà Nẵng)_x000d_
+- Giải 3 Olympic tin học sinh viên và ACM - ICPC lần thứ 30 tại đại học FPT Hà Nội_x000d_
+- Top 8 HSBC Case Competition khu vực miền Bắc Việt Nam</v>
+      </c>
+      <c r="K9" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651054657340-594584285-CV Vũ_Tháng4_new.pdf</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Artemis</v>
+      </c>
+      <c r="N9" t="str">
+        <v>Vũ Thị Thu Doan</v>
+      </c>
+      <c r="O9" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P9" t="str">
+        <v>22/08/2001</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>tatavuthithudoan@gmail.com</v>
+      </c>
+      <c r="R9" t="str">
+        <v>0342735559</v>
+      </c>
+      <c r="S9" t="str">
+        <v>https://www.facebook.com/profile.php?id=100010623514813</v>
+      </c>
+      <c r="T9" t="str">
+        <v>Học viện Tài chính</v>
+      </c>
+      <c r="U9" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V9" t="str">
+        <v>Tin học tài chính</v>
+      </c>
+      <c r="W9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Quán quân Volunteer Got talent_x000d_
+Chung kết "Tết sinh viên"_x000d_
+Top 50 chung kết đại sứ MBank</v>
+      </c>
+      <c r="X9" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651054938572-391191956-CV-Doan.pdf</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>Nguyễn Công Tú</v>
+      </c>
+      <c r="Z9" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA9" t="str">
+        <v>17/11/2001</v>
+      </c>
+      <c r="AB9" t="str">
+        <v>nguyencongtu57.it@gmail.com</v>
+      </c>
+      <c r="AC9" t="str">
+        <v>0347495431</v>
+      </c>
+      <c r="AD9" t="str">
+        <v>https://www.facebook.com/tutggggg</v>
+      </c>
+      <c r="AE9" t="str">
+        <v>Học viện Tài chính</v>
+      </c>
+      <c r="AF9" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG9" t="str">
+        <v>Tin học tài chính</v>
+      </c>
+      <c r="AH9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Giải nhì NCKH cấp khoa_x000d_
+Top 14 Business Intelligence 5</v>
+      </c>
+      <c r="AI9" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651054938978-12708177-CV-Tú_042022.pdf</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Nguyễn Thị Hòa</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C10" t="str">
+        <v>09/02/2003</v>
+      </c>
+      <c r="D10" t="str">
+        <v>k60.2114730019@ftu.edu.vn</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0839587529</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://www.facebook.com/profile.php?id=100048159795029</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Đại Học Ngoại Thương</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Tiếng Pháp Thương Mại</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Thành viên BCM câu lạc bộ Tiếng Pháp ĐHNT</v>
+      </c>
+      <c r="K10" t="str">
+        <v>-</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Trần Việt Trí</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C11" t="str">
+        <v>27/02/2003</v>
+      </c>
+      <c r="D11" t="str">
+        <v>tranviettri27@gmail.com</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0353956438</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://www.facebook.com/cau.cu.3114935</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Trường Đại Học Điện Lực</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Thương mại điện tử</v>
+      </c>
+      <c r="J11" t="str">
+        <v>chưa có...</v>
+      </c>
+      <c r="K11" t="str">
+        <v>-</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Nguyễn Tuấn Đạt</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C12" t="str">
+        <v>29/05/2003</v>
+      </c>
+      <c r="D12" t="str">
+        <v>tuandatnguyen2905@gmail.com</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0913340575</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://www.facebook.com/tuandat.nguyen.3701</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Không</v>
+      </c>
+      <c r="K12" t="str">
+        <v>-</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Datubi</v>
+      </c>
+      <c r="N12" t="str">
+        <v>Thân Công Bình</v>
+      </c>
+      <c r="O12" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P12" t="str">
+        <v>14/08/2003</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>binhthan148@gmail.com</v>
+      </c>
+      <c r="R12" t="str">
+        <v>0968053469</v>
+      </c>
+      <c r="S12" t="str">
+        <v>https://www.facebook.com/thancongbinh148</v>
+      </c>
+      <c r="T12" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="U12" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V12" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="W12" t="str">
+        <v>Không</v>
+      </c>
+      <c r="X12" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>Phạm Minh Tuấn</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>30/09/2003</v>
+      </c>
+      <c r="AB12" t="str">
+        <v>tuanmp05@gmail.com</v>
+      </c>
+      <c r="AC12" t="str">
+        <v>0917182226</v>
+      </c>
+      <c r="AD12" t="str">
+        <v>https://www.facebook.com/tu.mi.376</v>
+      </c>
+      <c r="AE12" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="AF12" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG12" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="AH12" t="str">
+        <v>Không</v>
+      </c>
+      <c r="AI12" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Trần Cao Thị Nữ</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C13" t="str">
+        <v>04/07/2001</v>
+      </c>
+      <c r="D13" t="str">
+        <v>nutranftu@gmail.com</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0394921902</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://www.facebook.com/profile.php?id=100014801741352</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Đại học Ngoại Thương</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Kinh Tế Quốc tế</v>
+      </c>
+      <c r="J13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Impact of Intellectual property rights protection on VietNam’s trade value after Trips Agreement       9-10/2021                                                                                                                              _x000d_
+•	Team leader, selecting research topic, analyzing data and interpreting results_x000d_
+•	Quantitative research by STATA_x000d_
+_x000d_
+Determinants of CEO compensation and the different compensation in information, technology and other fields in 2006-2010                                                                                                                                               12/2021-1/2022_x000d_
+•	Team leader, analyzing data and interpreting result, writing introduction_x000d_
+•	Quantitative research by STATA_x000d_
+_x000d_
+Forecasting exchange rate in 2022                                                                                                                  11-12/2021_x000d_
+•	Forecast through Arima and Var model using Eviews _x000d_
+_x000d_
+Factors affecting the preventive behavior of Ha Noi people in response to the Covid-19 pandemic 3/2022-Present                      _x000d_
+•	Team leader, analyzing data and interpreting result_x000d_
+•	Quantitative research by SPSS_x000d_
+_x000d_
+Assesing the impact of decentralized knowledge management systems on the absorptive capacity and organizational innovative capability: the case of enterprises in Viet Nam                                          4/2022- Present_x000d_
+•	Analyzing data using SPSS &amp; AMOS and interpreting result _x000d_
+</v>
+      </c>
+      <c r="K13" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651117125200-587276645-English_Tran Cao Thi Nu_ Business Anayst.pdf</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Nguyễn Thái Dương</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C14" t="str">
+        <v>28/07/20001</v>
+      </c>
+      <c r="D14" t="str">
+        <v>duongnguyen.k57.2k1@gmail.com</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0826999859</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://www.facebook.com/profile.php?id=100011262161799</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Học viện tài chính</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Hệ thống thông tin tài chính</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Đã từng tham gia một số cuộc thi về Data</v>
+      </c>
+      <c r="K14" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651127619000-327960931-CV_ND.pdf</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v xml:space="preserve">Nguyễn Minh Anh </v>
+      </c>
+      <c r="B15" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C15" t="str">
+        <v>26/08/2003</v>
+      </c>
+      <c r="D15" t="str">
+        <v>makjy2608@gmail.com</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0868826313</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://www.facebook.com/nguyen.minhanh.1612/</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Trường Đại Học Ngoại Thương</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Tài Chính Ngân Hàng</v>
+      </c>
+      <c r="J15" t="str" xml:space="preserve">
+        <v xml:space="preserve">TOP 9 Leadership Hackathon Business Case 2021_x000d_
+TOP 31 Toán Olympic Đại học Ngoại Thương_x000d_
+Thành viên BTC CLB Thể Thao trường Đại học Ngoại Thương_x000d_
+Trưởng ban CLB Âm nhạc trường THPT Thăng Long </v>
+      </c>
+      <c r="K15" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651201353000-89829235-NguyenMinhAnh_0868826313.pdf</v>
+      </c>
+      <c r="L15" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Nguyễn Thị Thùy Linh</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C16" t="str">
+        <v>20/08/2002</v>
+      </c>
+      <c r="D16" t="str">
+        <v>linhntt58.aa@gmail.com</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0375785362</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://www.facebook.com/NTTL.aa/</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Học viện Tài chính</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Kế toán Doanh nghiệp</v>
+      </c>
+      <c r="J16" t="str" xml:space="preserve">
+        <v xml:space="preserve">GPA HK1 năm học 2021 - 2022 3.72/4_x000d_
+Học bổng xuất sắc năm học 2021 - 2022_x000d_
+Trưởng Ban Nội bộ của CLB Kế toán Kiểm toán viên Học viện Tài chính</v>
+      </c>
+      <c r="K16" t="str">
+        <v>-</v>
+      </c>
+      <c r="L16" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Nghiêm Xuân Bách</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C17" t="str">
+        <v>20/08/2001</v>
+      </c>
+      <c r="D17" t="str">
+        <v>bachnghiemxuan@gmail.com</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0398884472</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://www.facebook.com/profile.php?id=100008857297021</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Ngoại Thương</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I17" t="str">
+        <v xml:space="preserve">Kinh doanh quoosfc tế </v>
+      </c>
+      <c r="J17" t="str">
+        <v>Microsoft Certified: Data Analyst Associate (DA-100)</v>
+      </c>
+      <c r="K17" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651207423245-968085931-CV_DataAnalyst_1.pdf</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Nguyễn Lê Tiến Huy</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C18" t="str">
+        <v>15/07/2002</v>
+      </c>
+      <c r="D18" t="str">
+        <v>tienhuy992016@gmail.com</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0336066947</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://www.facebook.com/huyanh.k59e</v>
+      </c>
+      <c r="G18" t="str">
+        <v>FTU2</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Kinh tế đối ngoại</v>
+      </c>
+      <c r="J18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Top 10 HRExpert 2021_x000d_
+Sinh viên 5 tốt năm 2021_x000d_
+Thanh niên tiên tiến năm 2021</v>
+      </c>
+      <c r="K18" t="str">
+        <v>-</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Nguyễn Anh Đức</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C19" t="str">
+        <v>17/06/2000</v>
+      </c>
+      <c r="D19" t="str">
+        <v>nguyenanhduc114@gmail.com</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0329301359</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://www.facebook.com/ducnguyen114</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Đã ra trường</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Kinh tế Đối ngoại</v>
+      </c>
+      <c r="J19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Runners - Up học bổng AmCham (2022)_x000d_
+Giải nhì Cuộc thi Sinh viên nghiên cứu khoa học cấp trường (2021)_x000d_
+Học bổng khuyến khích học tập FTU (2019, 2020, 2021)</v>
+      </c>
+      <c r="K19" t="str">
+        <v>-</v>
+      </c>
+      <c r="L19" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve">Nguyễn Quang Thắng </v>
+      </c>
+      <c r="B20" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C20" t="str">
+        <v>13/10/2001</v>
+      </c>
+      <c r="D20" t="str">
+        <v>k58.1914410183@ftu.edu.vn</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0354630663</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://www.facebook.com/thang.nguyenquang.7543/</v>
+      </c>
+      <c r="G20" t="str">
+        <v xml:space="preserve">Đại học Ngoại thương </v>
+      </c>
+      <c r="H20" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I20" t="str">
+        <v xml:space="preserve">Kinh tế quốc tế </v>
+      </c>
+      <c r="J20" t="str">
+        <v xml:space="preserve">Không </v>
+      </c>
+      <c r="K20" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651233325771-439963364-Nguyen Quang Thang - CV.pdf</v>
+      </c>
+      <c r="L20" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Phạm Thúy Nhung</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C21" t="str">
+        <v>28/02/2001</v>
+      </c>
+      <c r="D21" t="str">
+        <v>phamnhung260201@gmail.com</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0364676740</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://www.facebook.com/ptnhung.26</v>
+      </c>
+      <c r="G21" t="str">
+        <v xml:space="preserve">Học viện ngân hàng </v>
+      </c>
+      <c r="H21" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I21" t="str">
+        <v xml:space="preserve">Tài Chính </v>
+      </c>
+      <c r="J21" t="str">
+        <v>TOP 20 RMIT research challenge</v>
+      </c>
+      <c r="K21" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651240827334-677469624-CV  Phạm Thúy Nhung .pdf</v>
+      </c>
+      <c r="L21" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Hoàng Thương Trường</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C22" t="str">
+        <v>06/07/2003</v>
+      </c>
+      <c r="D22" t="str">
+        <v>htt06072003@gmail.com</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0369693813</v>
+      </c>
+      <c r="F22" t="str">
+        <v>https://www.facebook.com/truong.hoangthuong.733/</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Đại học Ngoại Thương</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Tài chính quốc tế</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Không</v>
+      </c>
+      <c r="K22" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651248671465-252143610-CV_Hoàng Thương Trường.pdf</v>
+      </c>
+      <c r="L22" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M22" t="str">
+        <v>HTL</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Nguyễn Ngọc Huyền</v>
+      </c>
+      <c r="O22" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P22" t="str">
+        <v>07/03/2003</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>ngochuyenn0703@gmail.com</v>
+      </c>
+      <c r="R22" t="str">
+        <v>0368288033</v>
+      </c>
+      <c r="S22" t="str">
+        <v>https://www.facebook.com/profile.php?id=100035883790566</v>
+      </c>
+      <c r="T22" t="str">
+        <v>Đại học Ngoại Thương</v>
+      </c>
+      <c r="U22" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V22" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="W22" t="str">
+        <v>Không</v>
+      </c>
+      <c r="X22" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651248899325-834570264-CV_Nguyễn Ngọc Huyền.pdf</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>Bùi Khánh Linh</v>
+      </c>
+      <c r="Z22" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA22" t="str">
+        <v>17/12/2003</v>
+      </c>
+      <c r="AB22" t="str">
+        <v>blinh7062@gmail.com</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>0376962989</v>
+      </c>
+      <c r="AD22" t="str">
+        <v>https://www.facebook.com/profile.php?id=100027747555799</v>
+      </c>
+      <c r="AE22" t="str">
+        <v>Đại học Ngoại Thương</v>
+      </c>
+      <c r="AF22" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG22" t="str">
+        <v>Phân tích và đầu tư tài chính</v>
+      </c>
+      <c r="AH22" t="str">
+        <v>Không</v>
+      </c>
+      <c r="AI22" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651248900108-164149442-CV_Bùi Khánh Linh.pdf</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Nguyễn Hoài</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C23" t="str">
+        <v>15/12/2003</v>
+      </c>
+      <c r="D23" t="str">
+        <v>hoainguyen271220@gmail.com</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0374149029</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://www.facebook.com/profile.php?id=100064770503341</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Cao đẳng công nghiệp Thái Nguyên</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Điện công nghiệp</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Đạt học bổng năm nhất</v>
+      </c>
+      <c r="K23" t="str">
+        <v>-</v>
+      </c>
+      <c r="L23" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Nguyễn Phương Anh</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C24" t="str">
+        <v>08/12/2003</v>
+      </c>
+      <c r="D24" t="str">
+        <v>phuonganhnhm@gmail.com</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0356653864</v>
+      </c>
+      <c r="F24" t="str">
+        <v>https://www.facebook.com/profile.php?id=100026714527936</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Đại học Bách Khoa Hà Nội</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Kế toán</v>
+      </c>
+      <c r="J24" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Đạt giải 3 Vật lý cấp trường_x000d_
+- Đã từng tham gia đội tuyển học sinh giỏi Lý</v>
+      </c>
+      <c r="K24" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651324623053-769221163-CV (2).pdf</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Mai Đức Dương</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C25" t="str">
+        <v>07/12/2001</v>
+      </c>
+      <c r="D25" t="str">
+        <v>maiducduongtt@gmail.com</v>
+      </c>
+      <c r="E25" t="str">
+        <v>0389417118</v>
+      </c>
+      <c r="F25" t="str">
+        <v>https://www.facebook.com/duongducmaitt/</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Trường Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Ngân hàng</v>
+      </c>
+      <c r="J25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sinh viên 5 Tốt Thành phố Hà Nội năm học 2020 - 2021._x000d_
+Giải Khuyến khích Cuộc thi Nghiên cứu khoa học sinh viên Đại học Kinh tế Quốc dân - Vietcombank 2021._x000d_
+TOP 8 Gameshow The Banker 2021._x000d_
+TOP 20 Cuộc thi NEU Research Challenge 2021._x000d_
+Học bổng Khuyến khích học tập Trường Đại học Kinh tế Quốc dân học kỳ 2, năm 2019 - 2020, học kỳ 2 năm 2020 - 2021._x000d_
+Học bổng Nitori 2021._x000d_
+Đồng tác giả công trình "IMPLEMENTATION OF CORPORATE SOCIAL RESPONSIBILITY: CASE STUDY OF BANCASSRANCE SERVICES SUPPLIERS" (2021), đăng tải tại Kỷ yếu Hội thảo Khoa học Quốc tế "FUTURE-ORIENTED TRANSFORMATION OF BIOECONOMICS AND VALUE CHAINS"._x000d_
+Phó Ban Truyền thông - Đối ngoại - CLB Sinh viên Nghiên cứu Khoa học YES - NEU, nhiệm kỳ 2020 - 2021.</v>
+      </c>
+      <c r="K25" t="str">
+        <v>-</v>
+      </c>
+      <c r="L25" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Deadlinestopper</v>
+      </c>
+      <c r="N25" t="str">
+        <v>Đinh Thị Thảo Quyên</v>
+      </c>
+      <c r="O25" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P25" t="str">
+        <v>07/06/2001</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>dinhthaoquyen07@gmail.com</v>
+      </c>
+      <c r="R25" t="str">
+        <v>0356493597</v>
+      </c>
+      <c r="S25" t="str">
+        <v>https://www.facebook.com/profile.php?id=100007498542708</v>
+      </c>
+      <c r="T25" t="str">
+        <v>Trường Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="U25" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V25" t="str">
+        <v>Kinh doanh Quốc tế</v>
+      </c>
+      <c r="W25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Thành viên Ban Truyền thông - Đối ngoại - CLB Sinh viên Nghiên cứu Khoa học YES - NEU._x000d_
+Học bổng Khuyến khích học tập Trường Đại học Kinh tế Quốc dân học kỳ 2, năm 2020 - 2021._x000d_
+Đồng tác giả công trình "IMPLEMENTATION OF CORPORATE SOCIAL RESPONSIBILITY: CASE STUDY OF BANCASSRANCE SERVICES SUPPLIERS" (2021), đăng tải tại Kỷ yếu Hội thảo Khoa học Quốc tế "FUTURE-ORIENTED TRANSFORMATION OF BIOECONOMICS AND VALUE CHAINS".</v>
+      </c>
+      <c r="X25" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>Đỗ Phương Thanh</v>
+      </c>
+      <c r="Z25" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA25" t="str">
+        <v>05/09/2001</v>
+      </c>
+      <c r="AB25" t="str">
+        <v>phuongthanh5901@gmail.com</v>
+      </c>
+      <c r="AC25" t="str">
+        <v>0839592001</v>
+      </c>
+      <c r="AD25" t="str">
+        <v>https://www.facebook.com/phuongthanh.hihi.0509</v>
+      </c>
+      <c r="AE25" t="str">
+        <v>Trường Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="AF25" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG25" t="str">
+        <v>Kinh doanh Quốc tế</v>
+      </c>
+      <c r="AH25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phó Ban Truyền thông - Đối ngoại - CLB Sinh viên Nghiên cứu Khoa học YES - NEU, nhiệm kỳ 2021 - 2022._x000d_
+Học bổng Khuyến khích học tập Trường Đại học Kinh tế Quốc dân học kỳ 2, năm 2020 - 2021, học kỳ 1 năm 2021 - 2022._x000d_
+Đồng tác giả công trình "IMPLEMENTATION OF CORPORATE SOCIAL RESPONSIBILITY: CASE STUDY OF BANCASSRANCE SERVICES SUPPLIERS" (2021), đăng tải tại Kỷ yếu Hội thảo Khoa học Quốc tế "FUTURE-ORIENTED TRANSFORMATION OF BIOECONOMICS AND VALUE CHAINS".</v>
+      </c>
+      <c r="AI25" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Đào Trung Hiếu</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C26" t="str">
+        <v>03/11/2001</v>
+      </c>
+      <c r="D26" t="str">
+        <v>hieudt.yrc@gmail.com</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0836808666</v>
+      </c>
+      <c r="F26" t="str">
+        <v>https://www.facebook.com/daotrung.hieu.37/</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Thương mại quốc tế</v>
+      </c>
+      <c r="J26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Quán quân Financial Race 2021_x000d_
+Quán quân Đường đua tài chính 2022_x000d_
+Á quân CE Hackathon 2022_x000d_
+Quý quân IAE 2021</v>
+      </c>
+      <c r="K26" t="str">
+        <v>-</v>
+      </c>
+      <c r="L26" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Phạm Thị Ngọc An</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C27" t="str">
+        <v>20/01/2000</v>
+      </c>
+      <c r="D27" t="str">
+        <v>phamngocanftu@gmail.com</v>
+      </c>
+      <c r="E27" t="str">
+        <v>0965582126</v>
+      </c>
+      <c r="F27" t="str">
+        <v>https://www.facebook.com/ngocpham.an.121</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Đại học Ngoại Thương</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Kinh Tế và Phát triển Quốc Tế</v>
+      </c>
+      <c r="J27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Giải ba môn đại số cuộc thi olympic toán sinh viên năm 2019_x000d_
+Giả nhì môn giải tích cuộc thi olympic toán sinh viên năm 2019</v>
+      </c>
+      <c r="K27" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651501018793-906095929-Pham Thi Ngoc An - CV BA+DA.pdf</v>
+      </c>
+      <c r="L27" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Phạm Thị Minh Khánh</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C28" t="str">
+        <v>29/08/2001</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Khanhptm1510@gmail.com</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0853001644</v>
+      </c>
+      <c r="F28" t="str">
+        <v>https://www.facebook.com/minhkhanh1510</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Không</v>
+      </c>
+      <c r="K28" t="str">
+        <v>-</v>
+      </c>
+      <c r="L28" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M28" t="str">
+        <v>KAT</v>
+      </c>
+      <c r="N28" t="str">
+        <v>Nguyễn Việt Anh</v>
+      </c>
+      <c r="O28" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P28" t="str">
+        <v>28/05/2000</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>Anhnv08.gec@gmail.com</v>
+      </c>
+      <c r="R28" t="str">
+        <v>0822002373</v>
+      </c>
+      <c r="S28" t="str">
+        <v>https://www.facebook.com/vanh285</v>
+      </c>
+      <c r="T28" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="U28" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V28" t="str">
+        <v>CTTT Kinh tế</v>
+      </c>
+      <c r="W28" t="str">
+        <v>Không</v>
+      </c>
+      <c r="X28" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>Ngô Lê Trang</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA28" t="str">
+        <v>18/07/2001</v>
+      </c>
+      <c r="AB28" t="str">
+        <v>ngoletrangnlt@gmail.com</v>
+      </c>
+      <c r="AC28" t="str">
+        <v>0853001644</v>
+      </c>
+      <c r="AD28" t="str">
+        <v>https://www.facebook.com/profile.php?id=100010621030371</v>
+      </c>
+      <c r="AE28" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="AF28" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG28" t="str">
+        <v>Kinh doanh quốc tế CLC</v>
+      </c>
+      <c r="AH28" t="str">
+        <v>Không</v>
+      </c>
+      <c r="AI28" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Mai Văn Nam</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C29" t="str">
+        <v>26/12/2002</v>
+      </c>
+      <c r="D29" t="str">
+        <v>namdevitdark@gmail.com</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0947092996</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://www.facebook.com/khanh.kaito.10/</v>
+      </c>
+      <c r="G29" t="str">
+        <v>trường đại học kinh tế quốc dân</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I29" t="str">
+        <v>logistics và quản lý chuỗi cung ứng</v>
+      </c>
+      <c r="J29" t="str">
+        <v xml:space="preserve">không có </v>
+      </c>
+      <c r="K29" t="str">
+        <v>-</v>
+      </c>
+      <c r="L29" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M29" t="str">
+        <v>XiTiN</v>
+      </c>
+      <c r="N29" t="str">
+        <v>Cao Phương Châm</v>
+      </c>
+      <c r="O29" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P29" t="str">
+        <v>04/08/2002</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>caophuongcham4012@gmail.com</v>
+      </c>
+      <c r="R29" t="str">
+        <v>0968482002</v>
+      </c>
+      <c r="S29" t="str">
+        <v>https://www.facebook.com/cham.phuong.581525</v>
+      </c>
+      <c r="T29" t="str">
+        <v>trường đại học kinh tế quốc dân</v>
+      </c>
+      <c r="U29" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V29" t="str">
+        <v>logistics và quản lý chuỗi cung ứng</v>
+      </c>
+      <c r="W29" t="str">
+        <v>Top 8 cuộc thi Olympic kinh tế (do clb của HVTC tổ chức)</v>
+      </c>
+      <c r="X29" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>Vũ Văn Thành</v>
+      </c>
+      <c r="Z29" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA29" t="str">
+        <v>24/04/2002</v>
+      </c>
+      <c r="AB29" t="str">
+        <v>thanhvu240402@gmail.com</v>
+      </c>
+      <c r="AC29" t="str">
+        <v>0946042508</v>
+      </c>
+      <c r="AD29" t="str">
+        <v>https://www.facebook.com/areyouok.11</v>
+      </c>
+      <c r="AE29" t="str">
+        <v>trường đại học kinh tế quốc dân</v>
+      </c>
+      <c r="AF29" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG29" t="str">
+        <v>logistics và quản lý chuỗi cung ứng</v>
+      </c>
+      <c r="AH29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Top 8 cuộc thi Olympic kinh tế (do clb của HVTC tổ chức)_x000d_
+Top 5 đội thi của cuộc thi “DESIGN WAREHOUSE LAYOUT OF LOGICHAIN 2021” của_x000d_
+LOGISTICS &amp; SUPPLY CHAIN CLUB (NEU) – 2021</v>
+      </c>
+      <c r="AI29" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Nguyễn Thảo Hiền</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C30" t="str">
+        <v>04/05/2001</v>
+      </c>
+      <c r="D30" t="str">
+        <v>hiennt0405.work@gmail.com</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0385192548</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://www.facebook.com/profile.php?id=100005397584799</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Trường Đại học Ngoại Thương</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Top 20 Interchain 2022</v>
+      </c>
+      <c r="K30" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651586667221-321001848-Nguyễn Thảo Hiền_CVeng_final.pdf</v>
+      </c>
+      <c r="L30" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M30" t="str">
+        <v>Python</v>
+      </c>
+      <c r="N30" t="str">
+        <v>Bùi Minh Thắng</v>
+      </c>
+      <c r="O30" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P30" t="str">
+        <v>09/06/2001</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>mthang96@gmail.com</v>
+      </c>
+      <c r="R30" t="str">
+        <v>0912759469</v>
+      </c>
+      <c r="S30" t="str">
+        <v>https://www.facebook.com/PhanlangOnion</v>
+      </c>
+      <c r="T30" t="str">
+        <v>Trường Đại học Ngoại Thương</v>
+      </c>
+      <c r="U30" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V30" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="W30" t="str">
+        <v>Quý quân cuộc thi RPA BA - The Next Gen 2022 do TEC FTU x akaBot - RPA solution for your business tổ chức</v>
+      </c>
+      <c r="X30" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>Nguyễn Hoàng Sơn</v>
+      </c>
+      <c r="Z30" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA30" t="str">
+        <v>03/10/2001</v>
+      </c>
+      <c r="AB30" t="str">
+        <v>nghoangson03@gmail.com</v>
+      </c>
+      <c r="AC30" t="str">
+        <v>0338975860</v>
+      </c>
+      <c r="AD30" t="str">
+        <v>https://www.facebook.com/HoangSon0310</v>
+      </c>
+      <c r="AE30" t="str">
+        <v>Trường Đại học Ngoại Thương</v>
+      </c>
+      <c r="AF30" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG30" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="AH30" t="str">
+        <v>Quán quân Into The Case 2021</v>
+      </c>
+      <c r="AI30" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Nguyễn Thúy Hường</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C31" t="str">
+        <v>07/12/2002</v>
+      </c>
+      <c r="D31" t="str">
+        <v>thuyhuongyc@gmail.com</v>
+      </c>
+      <c r="E31" t="str">
+        <v>0974015382</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://www.facebook.com/huong.nguyenthuy.501598/</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Học viện Ngân Hàng</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Kế Toán- Kiểm Toán</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Tham gia tổ chức các sự kiện của Khoa như Đấu Trường Kế Kiểm, Hành trang Kế Kiểm,...</v>
+      </c>
+      <c r="K31" t="str">
+        <v>-</v>
+      </c>
+      <c r="L31" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Nguyễn Thiên Hoàn</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C32" t="str">
+        <v>21/02/2002</v>
+      </c>
+      <c r="D32" t="str">
+        <v>thienhoan201@gmail.com</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0376309002</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://www.facebook.com/nguyenthien.hoan.12/</v>
+      </c>
+      <c r="G32" t="str">
+        <v xml:space="preserve">Đại học Bách khoa Hà Nội </v>
+      </c>
+      <c r="H32" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Khoa học dữ liệu và Trí tuệ nhân tạo</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Tham gia xây dựng trang web reviewhust dành cho sinh viên trong trường</v>
+      </c>
+      <c r="K32" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651634335730-289906742-CV_Nguyễn Thiên Hoàn.pdf</v>
+      </c>
+      <c r="L32" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M32" t="str">
+        <v>Team ThS</v>
+      </c>
+      <c r="N32" t="str">
+        <v>Phạm Tiến Sơn</v>
+      </c>
+      <c r="O32" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P32" t="str">
+        <v>29/04/2002</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>phamtienson02@gmail.com</v>
+      </c>
+      <c r="R32" t="str">
+        <v>0387586536</v>
+      </c>
+      <c r="S32" t="str">
+        <v>https://www.facebook.com/phamson.02</v>
+      </c>
+      <c r="T32" t="str">
+        <v>Đại học Bách khoa Hà Nội</v>
+      </c>
+      <c r="U32" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V32" t="str">
+        <v>Khoa học dữ liệu &amp; Trí tuệ nhân tạo</v>
+      </c>
+      <c r="W32" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Thực tập sinh IT tại công ty bảo hiểm nhân thọ Sun Life Việt Nam_x000d_
+- Thành viên nhóm nghiên cứu Machine Learning, trung tâm BK.AI_x000d_
+- Trại sinh trại hè PiMA 2021 - "The Mathematics of Data Science"_x000d_
+- Trại sinh trại hè khoa học MaSSP 2021 môn Khoa học dữ liệu</v>
+      </c>
+      <c r="X32" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651634446379-925547954-PhamTienSon-Resume-0522.pdf</v>
+      </c>
+      <c r="Y32" t="str">
+        <v>Lê Ngọc Trâm</v>
+      </c>
+      <c r="Z32" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA32" t="str">
+        <v>24/02/2002</v>
+      </c>
+      <c r="AB32" t="str">
+        <v>lengoctram01@gmail.com</v>
+      </c>
+      <c r="AC32" t="str">
+        <v>0966105753</v>
+      </c>
+      <c r="AD32" t="str">
+        <v>https://www.facebook.com/ngtram2402</v>
+      </c>
+      <c r="AE32" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="AF32" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG32" t="str">
+        <v>CTTT Tài chính - Ngân hàng</v>
+      </c>
+      <c r="AH32" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Thí sinh bán kết "I-INVEST! 2022" _x000d_
+- Thí sinh bán kết “Đường Đua Tài Chính 2022”_x000d_
+- Quý quân "Into the Case 2021" _x000d_
+- Quán quân "Hiểu Đúng Về Tiền 2021" _x000d_
+- Quý quân "The Boundless Actuary 2020"</v>
+      </c>
+      <c r="AI32" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651634446881-480378376-Lê-Ngọc-Trâm_CV.pdf</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Nguyễn Anh Thư</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C33" t="str">
+        <v>11/07/2003</v>
+      </c>
+      <c r="D33" t="str">
+        <v>anhthuw1107@gmail.com</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0348259072</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://www.facebook.com/ng.anhthu117/</v>
+      </c>
+      <c r="G33" t="str">
+        <v>HUST</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I33" t="str">
+        <v>BA</v>
+      </c>
+      <c r="J33" t="str">
+        <v>chưa có</v>
+      </c>
+      <c r="K33" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651655173511-584056183-CV Nguyen Anh Thu (English).pdf</v>
+      </c>
+      <c r="L33" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>Tạ Khắc Cường</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C34" t="str">
+        <v>22/02/2002</v>
+      </c>
+      <c r="D34" t="str">
+        <v>takhaccuong777@gmail.com</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0363566302</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://www.facebook.com/vitieubaovl123/</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="J34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tham gia cuộc thi DA camp của FTU2_x000d_
+</v>
+      </c>
+      <c r="K34" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651655521701-38032484-Tạ Khắc Cường CV.pdf</v>
+      </c>
+      <c r="L34" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Vương thị hòa</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C35" t="str">
+        <v>07/07/2002</v>
+      </c>
+      <c r="D35" t="str">
+        <v>hoavuong2k2@gmail.com</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0376679898</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://www.facebook.com/profile.php?id=100029748681446</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Học viện nông nghiệp việt nam</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Kế toán</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="K35" t="str">
+        <v>-</v>
+      </c>
+      <c r="L35" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Nguyễn Ánh Dương</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C36" t="str">
+        <v>10/03/2003</v>
+      </c>
+      <c r="D36" t="str">
+        <v>anhduongnguyen.63.neu@gmail.com</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0392080788</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://www.facebook.com/profile.php?id=100025197435864</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Kinh tế quốc dân</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="J36" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Giải Nhất thi Học sinh giỏi cấp tỉnh môn Tiếng Anh năm học 2020-2021_x000d_
+- Giải Nhì Khoa học kỹ thuật cấp tỉnh năm học 2018-2019_x000d_
+- Danh hiệu "Học sinh 3 tốt" cấp trung ương_x000d_
+- Founder/President CSL English Society - CLB Tiếng Anh THPT Chuyên Sơn La_x000d_
+- Trưởng BTC trại hè tranh biện Eruditus Debate Camp 2019_x000d_
+- Phó BTC "Người Dẫn Đường" Mùa 6 2022_x000d_
+</v>
+      </c>
+      <c r="K36" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651683344514-924788074-Nguyen Anh Duong.pdf</v>
+      </c>
+      <c r="L36" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M36" t="str">
+        <v>Ratatouille</v>
+      </c>
+      <c r="N36" t="str">
+        <v>Hoàng Thùy Dương</v>
+      </c>
+      <c r="O36" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P36" t="str">
+        <v>04/02/2003</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>thuyduong4223@gmail.com</v>
+      </c>
+      <c r="R36" t="str">
+        <v>0972 419 777</v>
+      </c>
+      <c r="S36" t="str">
+        <v>https://www.facebook.com/profile.php?id=100012312510936</v>
+      </c>
+      <c r="T36" t="str">
+        <v>Kinh tế quốc dân</v>
+      </c>
+      <c r="U36" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V36" t="str">
+        <v>Quản trị kinh doanh</v>
+      </c>
+      <c r="W36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Giải nhì HSG cấp tỉnh môn Tiếng Anh năm 2019-2020_x000d_
+Huy chương đồng môn tiếng anh trại hè hùng vương 2019</v>
+      </c>
+      <c r="X36" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651683506107-92567462-Hoang Thuy Duong.pdf</v>
+      </c>
+      <c r="Y36" t="str">
+        <v>Đào Hải Nam</v>
+      </c>
+      <c r="Z36" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA36" t="str">
+        <v>11/12/2003</v>
+      </c>
+      <c r="AB36" t="str">
+        <v>namhaidao321@gmail.com</v>
+      </c>
+      <c r="AC36" t="str">
+        <v>036 343 2233</v>
+      </c>
+      <c r="AD36" t="str">
+        <v>https://www.facebook.com/profile.php?id=100025310452232</v>
+      </c>
+      <c r="AE36" t="str">
+        <v>Kinh tế quốc dân</v>
+      </c>
+      <c r="AF36" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG36" t="str">
+        <v>Financial Economics</v>
+      </c>
+      <c r="AH36" t="str">
+        <v>- Giải Ba môn Toán học kì thi học sinh giỏi cấp tỉnh năm học 2018-2019                                               - Founder "Chuỗi sự kiện văn hóa dân gian dành cho trẻ em Sơn La" năm 2018-2019                                     -Phó ban tổ chức "Chuyên Sơn La - Người Dẫn Đường năm 2022"</v>
+      </c>
+      <c r="AI36" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651683507154-217063572-DAO HAI NAM.pdf</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v xml:space="preserve">Nguyễn Đăng Dương </v>
+      </c>
+      <c r="B37" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C37" t="str">
+        <v>25/04/2003</v>
+      </c>
+      <c r="D37" t="str">
+        <v>nddndd.250403@gmail.com</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0777216999</v>
+      </c>
+      <c r="F37" t="str">
+        <v>https://www.facebook.com/profile.php?id=100052161651638</v>
+      </c>
+      <c r="G37" t="str">
+        <v xml:space="preserve">Trường đại học Ngoại Thương Hà Nội </v>
+      </c>
+      <c r="H37" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I37" t="str">
+        <v xml:space="preserve">Tiếng Anh thương mại CLC </v>
+      </c>
+      <c r="J37" t="str">
+        <v xml:space="preserve">N/A </v>
+      </c>
+      <c r="K37" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651713428529-161206011-DangDuongResume.CV.pdf</v>
+      </c>
+      <c r="L37" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Lê Tiến Thành</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C38" t="str">
+        <v>17/07/2002</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Lethanh17072002@gmail.com</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0345107094</v>
+      </c>
+      <c r="F38" t="str">
+        <v>https://www.facebook.com/lethanh2002</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Đại học Văn Lang</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Quan hệ công chúng</v>
+      </c>
+      <c r="J38" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Top 3 interviewees ngành Marketing tại Company Insider Mock Interview 2022 _x000d_
+- Project Manager dự án Spark The Next của Nestle 2022 _x000d_
+- Partnership Management tại OnMic (audio platform streaming) </v>
+      </c>
+      <c r="K38" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651731763744-477258753-CV - Le Tien Thanh.pdf</v>
+      </c>
+      <c r="L38" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M38" t="str">
+        <v>Diay</v>
+      </c>
+      <c r="N38" t="str">
+        <v>Võ Minh Như</v>
+      </c>
+      <c r="O38" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P38" t="str">
+        <v>29/09/2001</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>minhnhu290901@gmail.com</v>
+      </c>
+      <c r="R38" t="str">
+        <v>0764654843</v>
+      </c>
+      <c r="S38" t="str">
+        <v>https://www.facebook.com/profile.php?id=100009397912564</v>
+      </c>
+      <c r="T38" t="str">
+        <v>ĐH Western Sydney VN</v>
+      </c>
+      <c r="U38" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V38" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="W38" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Product Leader của tổ chức Vietnam Online Career Fair 2022_x000d_
+- Top 30 Việt Nam cuộc thi giải case toàn Châu Á Mondelez Business Case_x000d_
+- Digital Executive tại Back to Back Agency (performance marketing agency làm việc với international client)</v>
+      </c>
+      <c r="X38" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651732188874-306570041-CV_Vo Minh Nhu.pdf</v>
+      </c>
+      <c r="Y38" t="str">
+        <v>Nguyễn Đoàn Minh Điệp</v>
+      </c>
+      <c r="Z38" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA38" t="str">
+        <v>17/01/2000</v>
+      </c>
+      <c r="AB38" t="str">
+        <v>diepnguyen170100@gmail.com</v>
+      </c>
+      <c r="AC38" t="str">
+        <v>0708493482</v>
+      </c>
+      <c r="AD38" t="str">
+        <v>https://www.facebook.com/diepnguyen1701/</v>
+      </c>
+      <c r="AE38" t="str">
+        <v>Đại học Văn Lang</v>
+      </c>
+      <c r="AF38" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="AG38" t="str">
+        <v>Quan hệ công chúng</v>
+      </c>
+      <c r="AH38" t="str" xml:space="preserve">
+        <v xml:space="preserve">- NSO Marketing Specialist tại Pharmacity_x000d_
+- Phó ban truyền thông chương trình Hội Xuân Nguyễn Huệ 2020_x000d_
+- Trợ giảng bộ môn IMC tại Khoa PR Đại học Văn Lang</v>
+      </c>
+      <c r="AI38" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651732189745-385229577-CV - Nguyen Doan Minh Diep.pdf</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Nguyễn Lan Nhi</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C39" t="str">
+        <v>23/04/2003</v>
+      </c>
+      <c r="D39" t="str">
+        <v>gihibbpo@gmail.com</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0365785199</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://www.facebook.com/profile.php?id=100011431122988</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Học viện Tài chính</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Tài chính</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Tham gia một số cuộc thi về giải case như BUSINESS CASE HACKATHON 2022</v>
+      </c>
+      <c r="K39" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651736717346-35086449-Nguyễn Lan Nhi.pdf</v>
+      </c>
+      <c r="L39" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M39" t="str">
+        <v>PAK</v>
+      </c>
+      <c r="N39" t="str">
+        <v>Phạm Thế Hoàng</v>
+      </c>
+      <c r="O39" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P39" t="str">
+        <v>12/04/2000</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>hoangpham071111@gmail.com</v>
+      </c>
+      <c r="R39" t="str">
+        <v>09867431211</v>
+      </c>
+      <c r="S39" t="str">
+        <v>https://www.facebook.com/profile.php?id=100012227948575</v>
+      </c>
+      <c r="T39" t="str">
+        <v>Học viện tài chính</v>
+      </c>
+      <c r="U39" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V39" t="str">
+        <v>Ngân hàng</v>
+      </c>
+      <c r="W39" t="str">
+        <v>Thành viên CLB Kiểm toán của HVTC</v>
+      </c>
+      <c r="X39" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651737151442-246760065-Phạm Thế Hoàng.pdf</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>Nguyễn Bảo Trâm</v>
+      </c>
+      <c r="Z39" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA39" t="str">
+        <v>11/02/2002</v>
+      </c>
+      <c r="AB39" t="str">
+        <v>baotramme12@gmail.com</v>
+      </c>
+      <c r="AC39" t="str">
+        <v>0367698951</v>
+      </c>
+      <c r="AD39" t="str">
+        <v>https://www.facebook.com/profile.php?id=100008430519833</v>
+      </c>
+      <c r="AE39" t="str">
+        <v>Đại học Kinh tế- Đại học Quốc gia HN</v>
+      </c>
+      <c r="AF39" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG39" t="str">
+        <v>Quản trị kinh doanh</v>
+      </c>
+      <c r="AH39" t="str">
+        <v>Top 20 cuộc thi Rocket to Business Development</v>
+      </c>
+      <c r="AI39" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651737151884-799182663-Nguyễn Bảo Trâm.pdf</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Nguyễn Hồng Xuân</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C40" t="str">
+        <v>30/12/2002</v>
+      </c>
+      <c r="D40" t="str">
+        <v>xuannguyen.31201021990@st.ueh.edu.vn</v>
+      </c>
+      <c r="E40" t="str">
+        <v>0945729410</v>
+      </c>
+      <c r="F40" t="str">
+        <v>https://www.facebook.com/hongxuan3012</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Đại học UEH</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Kinh doanh thương mại</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Thành viên Ban Học tập - Nghiên cứu Khoa học - Quan hệ Quốc tế Đoàn trường UEH</v>
+      </c>
+      <c r="K40" t="str">
+        <v>-</v>
+      </c>
+      <c r="L40" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v xml:space="preserve">Trần Cát Khánh </v>
+      </c>
+      <c r="B41" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C41" t="str">
+        <v>10/05/2002</v>
+      </c>
+      <c r="D41" t="str">
+        <v>khanhpvz3@gmail.com</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0943736838</v>
+      </c>
+      <c r="F41" t="str">
+        <v>https://www.facebook.com/catkhanh.tran</v>
+      </c>
+      <c r="G41" t="str">
+        <v xml:space="preserve">Đại học Bách Khoa Hà Nội </v>
+      </c>
+      <c r="H41" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I41" t="str">
+        <v xml:space="preserve">Khoa học dữ liệu và Trí tuệ nhân tạo </v>
+      </c>
+      <c r="J41" t="str">
+        <v xml:space="preserve">không có </v>
+      </c>
+      <c r="K41" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651758783541-694725709-Tran-Cat-Khanh-CV..pdf</v>
+      </c>
+      <c r="L41" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Game Changers</v>
+      </c>
+      <c r="N41" t="str">
+        <v>Trần Khánh Lương</v>
+      </c>
+      <c r="O41" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P41" t="str">
+        <v>04/03/2002</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>luong.tk204882@sis.hust.edu.vn</v>
+      </c>
+      <c r="R41" t="str">
+        <v>0971161526</v>
+      </c>
+      <c r="S41" t="str">
+        <v>https://www.facebook.com/khanhluong432</v>
+      </c>
+      <c r="T41" t="str">
+        <v xml:space="preserve">Đại Học Bách Khoa Hà Nội </v>
+      </c>
+      <c r="U41" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V41" t="str">
+        <v>Khoa học dữ liệu và Trí tuệ nhân tạo</v>
+      </c>
+      <c r="W41" t="str">
+        <v xml:space="preserve">không có </v>
+      </c>
+      <c r="X41" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651759051351-923184291-trankhanhluong_cv (1).pdf</v>
+      </c>
+      <c r="Y41" t="str">
+        <v>Lê Kim Anh</v>
+      </c>
+      <c r="Z41" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA41" t="str">
+        <v>17/02/2003</v>
+      </c>
+      <c r="AB41" t="str">
+        <v>kimanhlecls@gmail.com</v>
+      </c>
+      <c r="AC41" t="str">
+        <v>0914738168</v>
+      </c>
+      <c r="AD41" t="str">
+        <v>https://www.facebook.com/profile.php?id=100024665509546</v>
+      </c>
+      <c r="AE41" t="str">
+        <v xml:space="preserve">Đại Học Kinh Tế Quốc Dân </v>
+      </c>
+      <c r="AF41" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG41" t="str">
+        <v>Toán Kinh Tế</v>
+      </c>
+      <c r="AH41" t="str">
+        <v>Recent achievements : Gold Honor in IYMC với Top 6 - Northern Finalist in VSIC 2021</v>
+      </c>
+      <c r="AI41" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651759051721-447677711-Academic-CV.docx (1).pdf</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>zvzb</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C42" t="str">
+        <v>16/12/2200</v>
+      </c>
+      <c r="D42" t="str">
+        <v>bxxc@gmail.com</v>
+      </c>
+      <c r="E42" t="str">
+        <v>bvzvzvz</v>
+      </c>
+      <c r="F42" t="str">
+        <v>https://www.facebook.com/</v>
+      </c>
+      <c r="G42" t="str">
+        <v>vzbz</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I42" t="str">
+        <v>czvvz</v>
+      </c>
+      <c r="J42" t="str">
+        <v>xvvxzvzv</v>
+      </c>
+      <c r="K42" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651762721269-667289327-Untitled design.pdf</v>
+      </c>
+      <c r="L42" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Hoa Ngọc Giang</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C43" t="str">
+        <v>06/12/2002</v>
+      </c>
+      <c r="D43" t="str">
+        <v>ngocgiang602@gmail.com</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0942331683</v>
+      </c>
+      <c r="F43" t="str">
+        <v>https://www.facebook.com/profile.php?id=100010789993192</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Trường Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="K43" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651767228911-723777979-G'Contest_CV_HoaNgocGiang.pdf</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M43" t="str">
+        <v>GAD</v>
+      </c>
+      <c r="N43" t="str">
+        <v>Phạm Thị Kim Dung</v>
+      </c>
+      <c r="O43" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P43" t="str">
+        <v>13/03/2002</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>phamthikimdung133@gmail.com</v>
+      </c>
+      <c r="R43" t="str">
+        <v>0394108806</v>
+      </c>
+      <c r="S43" t="str">
+        <v>https://www.facebook.com/dungs.kims.7731</v>
+      </c>
+      <c r="T43" t="str">
+        <v>Trường Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="U43" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V43" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="W43" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="X43" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651767508958-331175834-G'Contest_CV_PhamThiKimDung.pdf</v>
+      </c>
+      <c r="Y43" t="str">
+        <v>Nguyễn Minh Anh</v>
+      </c>
+      <c r="Z43" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA43" t="str">
+        <v>22/12/2002</v>
+      </c>
+      <c r="AB43" t="str">
+        <v>nguyenminhanh1313@gmail.com</v>
+      </c>
+      <c r="AC43" t="str">
+        <v>0902129916</v>
+      </c>
+      <c r="AD43" t="str">
+        <v>https://www.facebook.com/manhhh2212/</v>
+      </c>
+      <c r="AE43" t="str">
+        <v>Trường Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="AF43" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG43" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="AH43" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="AI43" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651767509157-127729870-G'Contest_CV_NguyenMinhAnh.pdf</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Phùng Thị Khánh Linh</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C44" t="str">
+        <v>25/12/2002</v>
+      </c>
+      <c r="D44" t="str">
+        <v>khlinh2512@gmail.com</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0865562512</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://www.facebook.com/linh.phungthikhanh.73</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Phân tích kinh doanh</v>
+      </c>
+      <c r="J44" t="str" xml:space="preserve">
+        <v xml:space="preserve">Nhì toán cấp Tỉnh - phổ thông_x000d_
+Á khoa đầu vào ngành Phân tích kinh doanh_x000d_
+Học bổng khuyến khích học tập kì 2 năm nhất </v>
+      </c>
+      <c r="K44" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651784396899-485329352-CV_PhungThiKhanhLinh_2022.pdf</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>Vũ Thu Trang</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C45" t="str">
+        <v>12/04/2003</v>
+      </c>
+      <c r="D45" t="str">
+        <v>vuthutrang1242003@gmail.com</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0373308193</v>
+      </c>
+      <c r="F45" t="str">
+        <v>https://m.facebook.com/thutrang.vu.18</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Học viện Ngoại giao</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="J45" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Top 25% World Peace Writing and Presentation Contest by GYC 2021_x000d_
+- GPA kì I năm Nhất: 4.0/4.0_x000d_
+- Nhóm trưởng dự án lọt top 20 Khởi nghiệp Kinh doanh 2022 do Đại học Kinh tế - Luật, Đại học quốc gia TP HCM tổ chức.</v>
+      </c>
+      <c r="K45" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651808548255-618243890-6616D970-C0A6-4545-96A7-78CCE15D659A.pdf</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Ma Khánh Minh</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C46" t="str">
+        <v>28/05/2003</v>
+      </c>
+      <c r="D46" t="str">
+        <v>minhmk11.rec@gmail.com</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0962272363</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://www.facebook.com/minha3k12</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Đại học Ngoại Thương</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I46" t="str">
+        <v>KTĐN</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="K46" t="str">
+        <v>-</v>
+      </c>
+      <c r="L46" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M46" t="str">
+        <v>DMA</v>
+      </c>
+      <c r="N46" t="str">
+        <v>Lò Thị Kim Dung</v>
+      </c>
+      <c r="O46" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P46" t="str">
+        <v>25/01/2003</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>dunkimm052@gmail.com</v>
+      </c>
+      <c r="R46" t="str">
+        <v>0332945990</v>
+      </c>
+      <c r="S46" t="str">
+        <v>https://www.facebook.com/profile.php?id=100016042093443</v>
+      </c>
+      <c r="T46" t="str">
+        <v>ĐH Ngoại Thương</v>
+      </c>
+      <c r="U46" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V46" t="str">
+        <v>Kinh tế đối ngoại</v>
+      </c>
+      <c r="W46" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="X46" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y46" t="str">
+        <v>Kiều Hải Anh</v>
+      </c>
+      <c r="Z46" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA46" t="str">
+        <v>10/01/2003</v>
+      </c>
+      <c r="AB46" t="str">
+        <v>kieuhaianh0310@gmail.com</v>
+      </c>
+      <c r="AC46" t="str">
+        <v>0367919023</v>
+      </c>
+      <c r="AD46" t="str">
+        <v>https://www.facebook.com/kieuhaianh03</v>
+      </c>
+      <c r="AE46" t="str">
+        <v>ĐH Ngoại Thương</v>
+      </c>
+      <c r="AF46" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG46" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="AH46" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="AI46" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>.</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C47" t="str">
+        <v>21/05/2022</v>
+      </c>
+      <c r="D47" t="str">
+        <v>m@gmail.com</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0678</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://hrc.com.vn/viec-lam/cong-viec/chi-tiet-cong-viec?id=624fec272cd9cd72b513c8e1&amp;company=5c0793e892b025161867a885</v>
+      </c>
+      <c r="G47" t="str">
+        <v>.</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I47" t="str">
+        <v>.</v>
+      </c>
+      <c r="J47" t="str">
+        <v>.</v>
+      </c>
+      <c r="K47" t="str">
+        <v>-</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>.</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C48" t="str">
+        <v>21/05/2022</v>
+      </c>
+      <c r="D48" t="str">
+        <v>m@gmail.com</v>
+      </c>
+      <c r="E48" t="str">
+        <v>0678</v>
+      </c>
+      <c r="F48" t="str">
+        <v>https://hrc.com.vn/viec-lam/cong-viec/chi-tiet-cong-viec?id=624fec272cd9cd72b513c8e1&amp;company=5c0793e892b025161867a885</v>
+      </c>
+      <c r="G48" t="str">
+        <v>.</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I48" t="str">
+        <v>.</v>
+      </c>
+      <c r="J48" t="str">
+        <v>.</v>
+      </c>
+      <c r="K48" t="str">
+        <v>-</v>
+      </c>
+      <c r="L48" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>nnn</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C49" t="str">
+        <v>26/02/2003</v>
+      </c>
+      <c r="D49" t="str">
+        <v>kkk@gmail.com</v>
+      </c>
+      <c r="E49" t="str">
+        <v>000000000</v>
+      </c>
+      <c r="F49" t="str">
+        <v>https://gcontest2022.gecftu.com/form/1</v>
+      </c>
+      <c r="G49" t="str">
+        <v>nnn</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I49" t="str">
+        <v>dđ</v>
+      </c>
+      <c r="J49" t="str">
+        <v>dđ</v>
+      </c>
+      <c r="K49" t="str">
+        <v>-</v>
+      </c>
+      <c r="L49" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M49" t="str">
+        <v>ccccc</v>
+      </c>
+      <c r="N49" t="str">
+        <v>ffff</v>
+      </c>
+      <c r="O49" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P49" t="str">
+        <v>26/02/2003</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>hh@gmail.com</v>
+      </c>
+      <c r="R49" t="str">
+        <v>000000000</v>
+      </c>
+      <c r="S49" t="str">
+        <v>https://gcontest2022.gecftu.com/form/3</v>
+      </c>
+      <c r="T49" t="str">
+        <v>bb</v>
+      </c>
+      <c r="U49" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V49" t="str">
+        <v>nnn</v>
+      </c>
+      <c r="W49" t="str">
+        <v>nn</v>
+      </c>
+      <c r="X49" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y49" t="str">
+        <v>xxx</v>
+      </c>
+      <c r="Z49" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA49" t="str">
+        <v>26/02/2003</v>
+      </c>
+      <c r="AB49" t="str">
+        <v>nn@gmail.com</v>
+      </c>
+      <c r="AC49" t="str">
+        <v>0000000000</v>
+      </c>
+      <c r="AD49" t="str">
+        <v>https://gcontest2022.gecftu.com/form/3</v>
+      </c>
+      <c r="AE49" t="str">
+        <v>nnn</v>
+      </c>
+      <c r="AF49" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG49" t="str">
+        <v>dd</v>
+      </c>
+      <c r="AH49" t="str">
+        <v>dđ</v>
+      </c>
+      <c r="AI49" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Nguyễn Minh Thuần</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C50" t="str">
+        <v>22/02/0002</v>
+      </c>
+      <c r="D50" t="str">
+        <v>thuannm.work@gmail.com</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0944972455</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://www.facebook.com/nmthuan772/</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="J50" t="str">
+        <v>q</v>
+      </c>
+      <c r="K50" t="str">
+        <v>-</v>
+      </c>
+      <c r="L50" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>Lê Thị Hoàng Yến</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C51" t="str">
+        <v>14/04/2003</v>
+      </c>
+      <c r="D51" t="str">
+        <v>hoangyen14744@gmail.com</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0375153968</v>
+      </c>
+      <c r="F51" t="str">
+        <v>https://www.facebook.com/vicy144/</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I51" t="str">
+        <v xml:space="preserve">Tài chính Doanh nghiệp </v>
+      </c>
+      <c r="J51" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Chủ nhiệm Câu lạc bộ Văn hóa PEM_x000d_
+- Thủ khoa đầu vào viện Tiên tiến Chất lượng cao và POHE NEU</v>
+      </c>
+      <c r="K51" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651856932981-1901614-Thoth_Lê Thị Hoàng Yến.pdf</v>
+      </c>
+      <c r="L51" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M51" t="str">
+        <v>THOTH</v>
+      </c>
+      <c r="N51" t="str">
+        <v>Nguyễn Đức Trung</v>
+      </c>
+      <c r="O51" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P51" t="str">
+        <v>21/11/2003</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>nguyenduct1234@gmail.com</v>
+      </c>
+      <c r="R51" t="str">
+        <v>0936073098</v>
+      </c>
+      <c r="S51" t="str">
+        <v>https://www.facebook.com/profile.php?id=100022646237131</v>
+      </c>
+      <c r="T51" t="str">
+        <v>Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="U51" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V51" t="str">
+        <v>Tài chính Doanh nghiệp</v>
+      </c>
+      <c r="W51" t="str">
+        <v>- không có</v>
+      </c>
+      <c r="X51" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651857017254-82174067-Thoth_Nguyễn Đức Trung.pdf</v>
+      </c>
+      <c r="Y51" t="str">
+        <v xml:space="preserve"> Đinh Khánh Huyền</v>
+      </c>
+      <c r="Z51" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA51" t="str">
+        <v>29/12/2003</v>
+      </c>
+      <c r="AB51" t="str">
+        <v>huyentoankhanh@gmail.com</v>
+      </c>
+      <c r="AC51" t="str">
+        <v>0961091236</v>
+      </c>
+      <c r="AD51" t="str">
+        <v>https://www.facebook.com/profile.php?id=100010388160366</v>
+      </c>
+      <c r="AE51" t="str">
+        <v>Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="AF51" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG51" t="str">
+        <v>Tài chính Doanh nghiệp</v>
+      </c>
+      <c r="AH51" t="str">
+        <v>- không có</v>
+      </c>
+      <c r="AI51" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651857018430-187710120-Thoth_Đinh Khánh Huyền.pdf</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Trần Anh Duy</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C52" t="str">
+        <v>04/12/2001</v>
+      </c>
+      <c r="D52" t="str">
+        <v>anhduytran5454@gmail.com</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0949910412</v>
+      </c>
+      <c r="F52" t="str">
+        <v>https://www.facebook.com/anhduy412/</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Điện Lực</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Công nghệ thông tin</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="K52" t="str">
+        <v>-</v>
+      </c>
+      <c r="L52" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Bùi Phương Liên</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C53" t="str">
+        <v>31/07/2003</v>
+      </c>
+      <c r="D53" t="str">
+        <v>buiphuonglien2003@gmail.com</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0982127618</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://www.facebook.com/phuonglien317</v>
+      </c>
+      <c r="G53" t="str">
+        <v xml:space="preserve">Trường Đại học Ngoại Thương </v>
+      </c>
+      <c r="H53" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I53" t="str">
+        <v>CLC Quản Trị Kinh Doanh</v>
+      </c>
+      <c r="J53" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Chuyên Tin - THPT Chu Văn An_x000d_
+- Thành viên function iGT-TM tại AIESEC in FHN_x000d_
+- Founder / Phó chủ tịch The Felicity Project_x000d_
+- Trưởng Ban Tài chính - CVA Social Gaming House_x000d_
+- Ban Tổ chức - CVA Teamwork 2019</v>
+      </c>
+      <c r="K53" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651898443590-898996414-Resume_Bui Phuong Lien (1).pdf</v>
+      </c>
+      <c r="L53" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M53" t="str">
+        <v>HSKO 2</v>
+      </c>
+      <c r="N53" t="str">
+        <v>Tạ Đức Minh</v>
+      </c>
+      <c r="O53" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P53" t="str">
+        <v>02/12/2003</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>taducminh2003@gmail.com</v>
+      </c>
+      <c r="R53" t="str">
+        <v>0338880026</v>
+      </c>
+      <c r="S53" t="str">
+        <v>https://www.facebook.com/profile.php?id=100026759760195</v>
+      </c>
+      <c r="T53" t="str">
+        <v>New York University</v>
+      </c>
+      <c r="U53" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V53" t="str">
+        <v>Economics</v>
+      </c>
+      <c r="W53" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Founder dự án Glucose Pasrol Project_x000d_
+- Trưởng ban PR dự án War's Aftermath initiatives _x000d_
+- Tình nguyện viên dạy Tiếng Anh và Học Sinh Giỏi Toán cho học sinh vùng sâu vùng xa_x000d_
+- Trợ lí nghiên cứu của trường Đại học Kinh tế Quốc Dân _x000d_
+- Associate cho dự án EmpowerED Consulting</v>
+      </c>
+      <c r="X53" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651898785127-458295291-Resume.pdf</v>
+      </c>
+      <c r="Y53" t="str">
+        <v>Tăng Minh Ngọc</v>
+      </c>
+      <c r="Z53" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA53" t="str">
+        <v>30/05/2003</v>
+      </c>
+      <c r="AB53" t="str">
+        <v>tangminhngoc1234@gmail.com</v>
+      </c>
+      <c r="AC53" t="str">
+        <v>0983052003</v>
+      </c>
+      <c r="AD53" t="str">
+        <v>https://www.facebook.com/profile.php?id=100012643092467</v>
+      </c>
+      <c r="AE53" t="str">
+        <v>Trường Đại học Ngoại Thương</v>
+      </c>
+      <c r="AF53" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG53" t="str">
+        <v>Kinh Doanh Quốc Tế</v>
+      </c>
+      <c r="AH53" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Thành viên ban nội dung của tổ chức thanh niên lớn nhất thế giới - AIESEC: _x000d_
+- Thành viên của dự án The Sonic Hall - Ở đây kể chuyện âm nhạc_x000d_
+- Thành viên của “Windchimes Project” - dự án phi lợi nhuận với mục đích tạo nên những sân chơi trải nghiệm văn hóa 3 miền</v>
+      </c>
+      <c r="AI53" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651898786777-883913878-Tang-Minh-Ngoc-CV-130422.162404.pdf</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>Phạm Khánh Linh</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C54" t="str">
+        <v>15/04/2002</v>
+      </c>
+      <c r="D54" t="str">
+        <v>linhpham150402@gmail.com</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0705735563</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://www.facebook.com/linh.pham150402/</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I54" t="str">
+        <v>CLC Kinh tế quốc tế</v>
+      </c>
+      <c r="J54" t="str" xml:space="preserve">
+        <v xml:space="preserve">Trưởng ban Tổ chức Entrepreuner Z Community trực thuộc Trung tâm Sáng tạo và Ươm tạo Đại học Ngoại Thương (FIIS)_x000d_
+MOS Word 2016 1000/1000, MOS Excel 960/1000</v>
+      </c>
+      <c r="K54" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651916290292-899886926-CV_Pham Khanh Linh.pdf</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>a</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C55" t="str">
+        <v>10/05/2022</v>
+      </c>
+      <c r="D55" t="str">
+        <v>a@gmail.com</v>
+      </c>
+      <c r="E55" t="str">
+        <v>6</v>
+      </c>
+      <c r="F55" t="str">
+        <v>bshhttps://www.facebook.com/profile.ndhdjwbfhdhshsjsjbw</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Ftu</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Hs</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Ú</v>
+      </c>
+      <c r="K55" t="str">
+        <v>-</v>
+      </c>
+      <c r="L55" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>Vũ Trúc Quỳnh</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C56" t="str">
+        <v>13/06/2003</v>
+      </c>
+      <c r="D56" t="str">
+        <v>trucquynh.vu.lsc@gmail.com</v>
+      </c>
+      <c r="E56" t="str">
+        <v>0943730603</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://www.facebook.com/vutrucquynh136/</v>
+      </c>
+      <c r="G56" t="str">
+        <v>FTU2</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I56" t="str">
+        <v>KINH TẾ ĐỐI NGOẠI</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Interchain 2022 - Top 20 Supply Chain Planning Finalists</v>
+      </c>
+      <c r="K56" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651925687322-958055843-Vũ Trúc Quỳnh.pdf</v>
+      </c>
+      <c r="L56" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M56" t="str">
+        <v>PLAY4FUN</v>
+      </c>
+      <c r="N56" t="str">
+        <v>Nguyễn Thùy Minh Châu</v>
+      </c>
+      <c r="O56" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P56" t="str">
+        <v>17/06/2003</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>minhchau.nguyenthuy.lsc@gmail.com</v>
+      </c>
+      <c r="R56" t="str">
+        <v>0935573035</v>
+      </c>
+      <c r="S56" t="str">
+        <v>https://www.facebook.com/jbbaembgmz</v>
+      </c>
+      <c r="T56" t="str">
+        <v>FTU2</v>
+      </c>
+      <c r="U56" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V56" t="str">
+        <v>Logistics &amp; Quản lý chuỗi cung ứng</v>
+      </c>
+      <c r="W56" t="str" xml:space="preserve">
+        <v xml:space="preserve">Thành viên LSC-FTU2_x000d_
+TL Year end party</v>
+      </c>
+      <c r="X56" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y56" t="str">
+        <v>Châu Ngọc Trâm Anh</v>
+      </c>
+      <c r="Z56" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA56" t="str">
+        <v>15/05/2003</v>
+      </c>
+      <c r="AB56" t="str">
+        <v>tramanhmsc@gmail.com</v>
+      </c>
+      <c r="AC56" t="str">
+        <v>0932000141</v>
+      </c>
+      <c r="AD56" t="str">
+        <v>https://www.facebook.com/chau.n.tramanh/</v>
+      </c>
+      <c r="AE56" t="str">
+        <v>FTU2</v>
+      </c>
+      <c r="AF56" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG56" t="str">
+        <v>Kinh tế đối ngoại</v>
+      </c>
+      <c r="AH56" t="str" xml:space="preserve">
+        <v xml:space="preserve">Thành viên LSC-FTU2_x000d_
+TL Venue XTN</v>
+      </c>
+      <c r="AI56" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>Phan Đức Trung</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C57" t="str">
+        <v>07/11/2002</v>
+      </c>
+      <c r="D57" t="str">
+        <v>ductrungtvs@gmail.com</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0333224698</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://www.facebook.com/trungpd712/</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Kinh tế Quốc tế</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Học bổng KKHT (năm học 2020 - 2021)</v>
+      </c>
+      <c r="K57" t="str">
+        <v>-</v>
+      </c>
+      <c r="L57" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M57" t="str">
+        <v>Tên là tên</v>
+      </c>
+      <c r="N57" t="str">
+        <v>Nguyễn Minh Anh</v>
+      </c>
+      <c r="O57" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P57" t="str">
+        <v>16/08/2003</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>minhank.nguyen168@gmail.com</v>
+      </c>
+      <c r="R57" t="str">
+        <v>0899838228</v>
+      </c>
+      <c r="S57" t="str">
+        <v>https://www.facebook.com/anhduong.nguyen.777701</v>
+      </c>
+      <c r="T57" t="str">
+        <v>Khoa học xã hội và nhân văn</v>
+      </c>
+      <c r="U57" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V57" t="str">
+        <v>Quản trị kinh doanh</v>
+      </c>
+      <c r="W57" t="str" xml:space="preserve">
+        <v xml:space="preserve">Câu lạc bộ truyền thông VUMCC trường ĐHKHXH&amp;NV_x000d_
+Thành viên ban truyền thông_x000d_
+_x000d_
+Talkshow "Lời yêu của người Tây Bắc" - Trại hè Hùng Vương năm 2018_x000d_
+Trưởng ban nội dung và truyền thông</v>
+      </c>
+      <c r="X57" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651933220898-911947810-Nguyen-Minh-Anh-TopCV.vn-070522.211203.pdf</v>
+      </c>
+      <c r="Y57" t="str">
+        <v>Trần Thị Ngọc Diệp</v>
+      </c>
+      <c r="Z57" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA57" t="str">
+        <v>20/02/2003</v>
+      </c>
+      <c r="AB57" t="str">
+        <v>dieptn03@gmail.com</v>
+      </c>
+      <c r="AC57" t="str">
+        <v>0336674418</v>
+      </c>
+      <c r="AD57" t="str">
+        <v>https://www.facebook.com/profile.php?id=100010348486034</v>
+      </c>
+      <c r="AE57" t="str">
+        <v>Kinh tế quốc dân</v>
+      </c>
+      <c r="AF57" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG57" t="str">
+        <v>Quản trị kinh doanh</v>
+      </c>
+      <c r="AH57" t="str" xml:space="preserve">
+        <v xml:space="preserve">Đạt giải nhì HSG Vật Lý cấp Tỉnh-Nghệ An_x000d_
+Là cán bộ lớp trong 3 năm liền (lớp phó học tập+ tổ_x000d_
+trưởng)_x000d_
+Tình nguyện viên chương trình "Gửi chữ lên non"- do_x000d_
+tỉnh đoàn Nghệ An tổ chức_x000d_
+Tình nguyện viên chương trình Hiến máu của Hội chữ_x000d_
+thập đỏ_x000d_
+Ban hậu cần của sự kiện về khoa học kĩ thuật cho clb của_x000d_
+trường. Ở đây em có làm leader cho 1 team nhỏ của ban_x000d_
+tài chính_x000d_
+Tình nguyện viên kỳ thi Đại học năm 2019_x000d_
+Tình nguyện viên chương trình Let's do it</v>
+      </c>
+      <c r="AI57" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651933221324-436413015-CV_Trần-Thị-Ngọc-Diệp_clb.pdf</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Phan Đức Trung</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C58" t="str">
+        <v>07/11/2002</v>
+      </c>
+      <c r="D58" t="str">
+        <v>k59.2014450213@ftu.edu.vn</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0333224698</v>
+      </c>
+      <c r="F58" t="str">
+        <v>https://www.facebook.com/trungpd712/</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Kinh tế Quốc tế</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Học bổng KKHT (năm học 2020 - 2021)</v>
+      </c>
+      <c r="K58" t="str">
+        <v>-</v>
+      </c>
+      <c r="L58" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M58" t="str">
+        <v>Triple T</v>
+      </c>
+      <c r="N58" t="str">
+        <v>Hà Phương Thảo</v>
+      </c>
+      <c r="O58" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P58" t="str">
+        <v>21/01/2002</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>k59.2014450216@ftu.edu.vn</v>
+      </c>
+      <c r="R58" t="str">
+        <v>0961219858</v>
+      </c>
+      <c r="S58" t="str">
+        <v>https://www.facebook.com/profile.php?id=100008179545715</v>
+      </c>
+      <c r="T58" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="U58" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V58" t="str">
+        <v>Kinh tế Quốc tế</v>
+      </c>
+      <c r="W58" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="X58" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y58" t="str">
+        <v>Vũ Huyền Trang</v>
+      </c>
+      <c r="Z58" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA58" t="str">
+        <v>11/06/2002</v>
+      </c>
+      <c r="AB58" t="str">
+        <v>k59.2011450207@ftu.edu.vn</v>
+      </c>
+      <c r="AC58" t="str">
+        <v>0367357786</v>
+      </c>
+      <c r="AD58" t="str">
+        <v>https://www.facebook.com/vuhuyen.trang.948</v>
+      </c>
+      <c r="AE58" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="AF58" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG58" t="str">
+        <v>Kinh tế Quốc tế</v>
+      </c>
+      <c r="AH58" t="str" xml:space="preserve">
+        <v xml:space="preserve">Học bổng KKHT (năm học 2020 - 2021)_x000d_
+Sinh viên 5 tốt (năm học 2020 - 2021)</v>
+      </c>
+      <c r="AI58" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Lê Kim Oanh</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C59" t="str">
+        <v>18/02/2001</v>
+      </c>
+      <c r="D59" t="str">
+        <v>oanhneu18@gmail.com</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0345307459</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://www.facebook.com/profile.php?id=100023425875961</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Kinh tế quốc dân</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Lọt vào vòng 2 của Economics Champion</v>
+      </c>
+      <c r="K59" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651937904028-393935884-CV - Lê Kim Oanh - Marketing Intern.pdf</v>
+      </c>
+      <c r="L59" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Hoàng Văn An</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C60" t="str">
+        <v>02/11/2002</v>
+      </c>
+      <c r="D60" t="str">
+        <v>an.hv204864@sis.hust.edu.vn</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0912538869</v>
+      </c>
+      <c r="F60" t="str">
+        <v>https://www.facebook.com/profile.php?id=100011248187572</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Đại học Bách khoa Hà Nội</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Data Science &amp; AI</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Học bổng loại A kì 20202; CPA: 3.6; sinh viên năm tốt cấp trường năm học 2020-2021; trưởng mảng truyền thông CLB Hỗ trợ học tập; phó mảng truyền thông ban Hỗ trợ Sinh viên</v>
+      </c>
+      <c r="K60" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651991688977-196248129-an.pdf</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M60" t="str">
+        <v>WIDAR</v>
+      </c>
+      <c r="N60" t="str">
+        <v>Nguyễn Hương Giang</v>
+      </c>
+      <c r="O60" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P60" t="str">
+        <v>01/09/2002</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>giang.nth1902@gmail.com</v>
+      </c>
+      <c r="R60" t="str">
+        <v>0867767067</v>
+      </c>
+      <c r="S60" t="str">
+        <v>https://www.facebook.com/reinguyen1902</v>
+      </c>
+      <c r="T60" t="str">
+        <v>Đại học Bách khoa Hà Nội</v>
+      </c>
+      <c r="U60" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V60" t="str">
+        <v>Data Science &amp; AI</v>
+      </c>
+      <c r="W60" t="str">
+        <v>CPA: 3.6; thành thạo Python, SQL, Java; có hoạt động tích cực trong phong trào Đoàn - Hội</v>
+      </c>
+      <c r="X60" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651991802215-299514493-GiangCV1.pdf</v>
+      </c>
+      <c r="Y60" t="str">
+        <v>Bùi Thị Ngọc Anh</v>
+      </c>
+      <c r="Z60" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA60" t="str">
+        <v>16/04/2002</v>
+      </c>
+      <c r="AB60" t="str">
+        <v>btngocanh66@gmail.com</v>
+      </c>
+      <c r="AC60" t="str">
+        <v>0987602366</v>
+      </c>
+      <c r="AD60" t="str">
+        <v>https://www.facebook.com/NgocAnh.ftu66</v>
+      </c>
+      <c r="AE60" t="str">
+        <v>Đại học Ngoại Thương</v>
+      </c>
+      <c r="AF60" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG60" t="str">
+        <v>INTERNATIONAL ECONOMICS</v>
+      </c>
+      <c r="AH60" t="str" xml:space="preserve">
+        <v xml:space="preserve">Học bổng học kỳ loại A trường Đại học Ngoại Thương_x000d_
+Project Assistant dự án Social Innovation Launch_x000d_
+Phó chủ tịch Tài chính tại Youth+ Community</v>
+      </c>
+      <c r="AI60" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1651991802426-307259014-Nanh (2).pdf</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Lê Minh Ngọc</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C61" t="str">
+        <v>07/09/2002</v>
+      </c>
+      <c r="D61" t="str">
+        <v>minhngoc23792@gmail.com</v>
+      </c>
+      <c r="E61" t="str">
+        <v>0916729969</v>
+      </c>
+      <c r="F61" t="str">
+        <v>https://www.facebook.com/profile.php?id=100013863812505</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Top 63 cuộc thi RPA BA do TEC tổ chức</v>
+      </c>
+      <c r="K61" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652005312667-21926514-CV Lê Minh Ngọc (2).pdf</v>
+      </c>
+      <c r="L61" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>Phan Tam Anh</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C62" t="str">
+        <v>12/11/2001</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Ptamanh0982@gmail.com</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0986233387</v>
+      </c>
+      <c r="F62" t="str">
+        <v>https://www.facebook.com/anh.phantam.10/</v>
+      </c>
+      <c r="G62" t="str">
+        <v>FTU2</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Tài chính quốc tế</v>
+      </c>
+      <c r="J62" t="str" xml:space="preserve">
+        <v xml:space="preserve">Finalist cuộc thi khởi nghiệp VSIC Toàn Quốc Việt Nam 2021 _x000d_
+Finalist Ehub LaunchPad YouPreneur 2020 - 2021_x000d_
+Top 20 Đường Đua tài chính - Cuộc thi sinh viên tài chính do Học Viện Ngân Hàng tổ chưcx_x000d_
+Top 40 I-Invest - Cuộc thi sinh viên tài chính Miền Bắc do SIC FTU HN tổ chức_x000d_
+Top 80 FSC 9 - Cuộc thi sinh viên tài chính Miền Nam do SESC FTU2 tổ chức_x000d_
+Bằng IELTS 7.5_x000d_
+Học bổng Data Science của FPT ( Hoàn thành 3/5 khóa học: thông thạo Python, SQL. Có kiến thức ML và DL) _x000d_
+Giấy chứng nhận của các cuộc thi lớn như Hult Prize 2019, SV 5 tốt FTU2, NCKH 2019 - 2020, 2021 - 2022._x000d_
+</v>
+      </c>
+      <c r="K62" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652010603040-990035815-Phan Tam Anh - Data Analyst Intern.pdf</v>
+      </c>
+      <c r="L62" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>a</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C63" t="str">
+        <v>27/04/2022</v>
+      </c>
+      <c r="D63" t="str">
+        <v>a@gmail.com</v>
+      </c>
+      <c r="E63" t="str">
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
+        <v>https://mail.google.com/mail/u/0/#inbox/FMfcgzGpFqQgDRgphvtnJStlwFRsqRZC</v>
+      </c>
+      <c r="G63" t="str">
+        <v>a</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I63" t="str">
+        <v>a</v>
+      </c>
+      <c r="J63" t="str">
+        <v>a</v>
+      </c>
+      <c r="K63" t="str">
+        <v>-</v>
+      </c>
+      <c r="L63" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Hồng Phương Đào</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C64" t="str">
+        <v>12/12/2000</v>
+      </c>
+      <c r="D64" t="str">
+        <v>hphuong1200@gmail.com</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0</v>
+      </c>
+      <c r="F64" t="str">
+        <v>https://www.facebook.com/alice.amelia.547/</v>
+      </c>
+      <c r="G64" t="str">
+        <v>HVTC</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Tài chính doanh nghiệp</v>
+      </c>
+      <c r="J64" t="str">
+        <v>no</v>
+      </c>
+      <c r="K64" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652019208306-455639256-Product Development Trainee_Dao Hong Phuong.pdf</v>
+      </c>
+      <c r="L64" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Nguyễn Minh Thuần</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C65" t="str">
+        <v>11/01/0001</v>
+      </c>
+      <c r="D65" t="str">
+        <v>thuan772sl@gmail.com</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0944972455</v>
+      </c>
+      <c r="F65" t="str">
+        <v>https://www.facebook.com/nmthuan772/</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="J65" t="str">
+        <v>a</v>
+      </c>
+      <c r="K65" t="str">
+        <v>-</v>
+      </c>
+      <c r="L65" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Nguyễn Minh Thuần</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C66" t="str">
+        <v>22/02/0022</v>
+      </c>
+      <c r="D66" t="str">
+        <v>thuan772sl@gmail.com</v>
+      </c>
+      <c r="E66" t="str">
+        <v>1</v>
+      </c>
+      <c r="F66" t="str">
+        <v>https://www.facebook.com/nmthuan772/</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="J66" t="str">
+        <v>a</v>
+      </c>
+      <c r="K66" t="str">
+        <v>-</v>
+      </c>
+      <c r="L66" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Đào Hồng Phương</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C67" t="str">
+        <v>12/12/2000</v>
+      </c>
+      <c r="D67" t="str">
+        <v>hphuong1200@gmail.com</v>
+      </c>
+      <c r="E67" t="str">
+        <v>0352883256</v>
+      </c>
+      <c r="F67" t="str">
+        <v>https://www.facebook.com/alice.amelia.547/</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Học viện Tài chính</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Tài chính doanh nghiệp</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Tham gia cuộc thi Future Business Analyst</v>
+      </c>
+      <c r="K67" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652021788502-195027691-Data Analyst_Dao Hong Phuong.pdf</v>
+      </c>
+      <c r="L67" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>Hoàng Minh Anh</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C68" t="str">
+        <v>11/09/2001</v>
+      </c>
+      <c r="D68" t="str">
+        <v>minmiah365@gmail.com</v>
+      </c>
+      <c r="E68" t="str">
+        <v>0329054117</v>
+      </c>
+      <c r="F68" t="str">
+        <v>https://www.facebook.com/minhanh.hoang.7359447</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I68" t="str">
+        <v xml:space="preserve">Kinh tế Quốc tế </v>
+      </c>
+      <c r="J68" t="str">
+        <v>- Tham gia NCKH cấp trường năm học 2020-2021</v>
+      </c>
+      <c r="K68" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652027750996-524771468-Team HAT_Hoàng Minh Anh_G'Contest 2022.pdf</v>
+      </c>
+      <c r="L68" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M68" t="str">
+        <v>HAT</v>
+      </c>
+      <c r="N68" t="str">
+        <v>Dương Thu Trang</v>
+      </c>
+      <c r="O68" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P68" t="str">
+        <v>09/04/2001</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>K58.1914410205@ftu.edu.vn</v>
+      </c>
+      <c r="R68" t="str">
+        <v>0977765588</v>
+      </c>
+      <c r="S68" t="str">
+        <v>https://www.facebook.com/profile.php?id=100009408697266</v>
+      </c>
+      <c r="T68" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="U68" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V68" t="str">
+        <v>Kinh tế Quốc tế</v>
+      </c>
+      <c r="W68" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Chứng chỉ tin học văn phòng MOS cấp độ Specialist cho_x000d_
+Word và Excel)_x000d_
+- Chứng chỉ tốt nghiệp Chương trình vệ tinh Khoa học Dữ_x000d_
+liệu trong Kinh tế và Kinh doanh_x000d_
+- Ngoại ngữ:  Tiếng Anh, Tiếng Đức</v>
+      </c>
+      <c r="X68" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652027890523-512415044-Team HAT_Dương Thu Trang_G'Contest 2022.pdf</v>
+      </c>
+      <c r="Y68" t="str">
+        <v>Dương Thanh Hiên</v>
+      </c>
+      <c r="Z68" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA68" t="str">
+        <v>23/09/2001</v>
+      </c>
+      <c r="AB68" t="str">
+        <v>duongthanhhien923@gmail.com</v>
+      </c>
+      <c r="AC68" t="str">
+        <v>0856636127</v>
+      </c>
+      <c r="AD68" t="str">
+        <v>https://www.facebook.com/dth0102</v>
+      </c>
+      <c r="AE68" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="AF68" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG68" t="str">
+        <v xml:space="preserve">Kinh tế Quốc tế </v>
+      </c>
+      <c r="AH68" t="str">
+        <v>- Chứng chỉ tiếng Anh APTIS loại B2</v>
+      </c>
+      <c r="AI68" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652027891071-224569376-Team HAT_Dương Thanh Hiên_G'contest 2022.pdf</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>NGUYỄN KHẮC SAO MAI</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C69" t="str">
+        <v>30/01/2001</v>
+      </c>
+      <c r="D69" t="str">
+        <v>saomainguyen3001@gmail.com</v>
+      </c>
+      <c r="E69" t="str">
+        <v>0389017991</v>
+      </c>
+      <c r="F69" t="str">
+        <v>https://www.facebook.com/saomainguyen3001</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Quản trị Kinh doanh Quốc tế</v>
+      </c>
+      <c r="J69" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Thành viên Ban thông tin - Tuyên truyền của Đoàn thanh niên ĐH Ngoại thương năm 2019-2021 _x000d_
+- Giấy khen của Đoàn trường vì có thành tích tiêu biểu năm 2019-2020 _x000d_
+- Leader ban Truyền thông Phóng sự nhập học K58_x000d_
+- Đại sứ truyền thông Ivolunteer Vietnam 2021_x000d_
+- IMUN Campus Ambassador Internship 2021_x000d_
+- Đảng viên Chi bộ sinh viên 2 ĐH Ngoại thương từ 2019 - nay</v>
+      </c>
+      <c r="K69" t="str">
+        <v>-</v>
+      </c>
+      <c r="L69" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M69" t="str">
+        <v>Storm Breaker</v>
+      </c>
+      <c r="N69" t="str">
+        <v>ĐỖ DUY  KHÁNH</v>
+      </c>
+      <c r="O69" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P69" t="str">
+        <v>06/07/2001</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>khanhdoduy2001@gmail.com</v>
+      </c>
+      <c r="R69" t="str">
+        <v>0912325793</v>
+      </c>
+      <c r="S69" t="str">
+        <v>https://www.facebook.com/khanh06072001/</v>
+      </c>
+      <c r="T69" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="U69" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V69" t="str">
+        <v>Kinh tế Quốc tế</v>
+      </c>
+      <c r="W69" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Phó ban Tổ chức  Đoàn Thanh niên Trường Đại học Ngoại thương nhiệm kì 2019 - 2021_x000d_
+- Leader chương trình hòa nhạc chào tân sinh viên FCD_x000d_
+- Mentor các chương trình của Đoàn Thanh niên Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="X69" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y69" t="str">
+        <v>NGUYỄN QUANG HUY</v>
+      </c>
+      <c r="Z69" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA69" t="str">
+        <v>22/06/2001</v>
+      </c>
+      <c r="AB69" t="str">
+        <v>Huy83444@gmail.com</v>
+      </c>
+      <c r="AC69" t="str">
+        <v>0944058788</v>
+      </c>
+      <c r="AD69" t="str">
+        <v>https://www.facebook.com/huy83444</v>
+      </c>
+      <c r="AE69" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="AF69" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG69" t="str">
+        <v>Kinh tế Quốc tế</v>
+      </c>
+      <c r="AH69" t="str" xml:space="preserve">
+        <v xml:space="preserve">TỔ THÔNG TIN NHANH PHÒNG CHỐNG COVID 19, Thành viên Tổ thông tin, 1/2021 – 9/2021_x000d_
+TRẠI HÈ LÃNH ĐẠO TRẺ, Camper, Á quân tranh biện 6/2017 – 7/2017._x000d_
+CHVMUN2021, CMUN Mock 2022: Crisis Director.</v>
+      </c>
+      <c r="AI69" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>Lê Thế Anh</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C70" t="str">
+        <v>25/01/1999</v>
+      </c>
+      <c r="D70" t="str">
+        <v>f412626284@outlook.com</v>
+      </c>
+      <c r="E70" t="str">
+        <v xml:space="preserve"> 0396021914</v>
+      </c>
+      <c r="F70" t="str">
+        <v>https://www.facebook.com/profile.php?id=100015180542727</v>
+      </c>
+      <c r="G70" t="str">
+        <v xml:space="preserve">Swinburne University of Technology </v>
+      </c>
+      <c r="H70" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Tài chính</v>
+      </c>
+      <c r="J70" t="str" xml:space="preserve">
+        <v xml:space="preserve">2017 |_x000d_
+Outstanding Freshman Scholarship_x000d_
+2017.9 - 2018.9 |_x000d_
+Student Union of the Academy of Economics_x000d_
+2018.3 |_x000d_
+Zhejiang University School of Economics Essay Contest, thành viên tổ chức_x000d_
+2017.12 |_x000d_
+Zhejiang University School of Economics New Year Party, thành viên tổ chức_x000d_
+2019.9 - present |_x000d_
+International Student Startup Club, Minister of Secretarial Department_x000d_
+2019 |_x000d_
+College Students Internet + Entrepreneurship_x000d_
+Competition, giải vàng nhóm tỉnh Chiết Giang_x000d_
+</v>
+      </c>
+      <c r="K70" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652031721100-138326132-LE-THE-ANH.pdf</v>
+      </c>
+      <c r="L70" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M70" t="str">
+        <v>MEOW</v>
+      </c>
+      <c r="N70" t="str">
+        <v>Lê Hà Anh</v>
+      </c>
+      <c r="O70" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P70" t="str">
+        <v>01/12/2002</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>haanhlee2002@gmail.com</v>
+      </c>
+      <c r="R70" t="str">
+        <v>0985127180</v>
+      </c>
+      <c r="S70" t="str">
+        <v>https://www.facebook.com/OrcaLee112</v>
+      </c>
+      <c r="T70" t="str">
+        <v>Swinburne University of Technology</v>
+      </c>
+      <c r="U70" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V70" t="str">
+        <v>Digital Marketing</v>
+      </c>
+      <c r="W70" t="str" xml:space="preserve">
+        <v xml:space="preserve">Achievement:_x000d_
+• The First Runner Up in Research Festival 2021_x000d_
+• Second Prize in Swinbiz Rock Star competition 2021_x000d_
+• Best Academic Performance 2021_x000d_
+</v>
+      </c>
+      <c r="X70" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652032049296-305016329-CV - LE HA ANH.pdf</v>
+      </c>
+      <c r="Y70" t="str">
+        <v>Đỗ Phương Thanh</v>
+      </c>
+      <c r="Z70" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA70" t="str">
+        <v>13/11/2002</v>
+      </c>
+      <c r="AB70" t="str">
+        <v>thanhdp.swin@gmail.com</v>
+      </c>
+      <c r="AC70" t="str">
+        <v>0936258558</v>
+      </c>
+      <c r="AD70" t="str">
+        <v>https://www.facebook.com/thongxanhh/</v>
+      </c>
+      <c r="AE70" t="str">
+        <v>Swinburne University of Technology</v>
+      </c>
+      <c r="AF70" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG70" t="str">
+        <v>International Business</v>
+      </c>
+      <c r="AH70" t="str" xml:space="preserve">
+        <v xml:space="preserve">First runner-up - Scientific Research Festival 2021, Topic: "Toward an insight into_x000d_
+the adoption of Open Innovation by SMEs in Vietnam";_x000d_
+- Team leader, research design, practical and theoretical writing_x000d_
+Second prize - Swinbiz Rockstar Startup Contest (2021-2022);_x000d_
+- Financial Planning, Product and Business Development_x000d_
+First prize - Swinburne Sprint 2022: Renovate the Global Citizen Program._x000d_
+- Product and Business Development, Market Research, Financial Planning</v>
+      </c>
+      <c r="AI70" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652032050511-546408323-SUT_Do Phuong Thanh_thanhdp.swin@gmail.com.pdf</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>Phạm Thị Hằng</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C71" t="str">
+        <v>03/06/2002</v>
+      </c>
+      <c r="D71" t="str">
+        <v>hangpham.05102002@gmail.com</v>
+      </c>
+      <c r="E71" t="str">
+        <v>0388239982</v>
+      </c>
+      <c r="F71" t="str">
+        <v>https://www.facebook.com/phan.hang.9843499</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Đại học Ngoại Thương</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Ngân hàng</v>
+      </c>
+      <c r="J71" t="str" xml:space="preserve">
+        <v xml:space="preserve">-CTV dịch sách Children's Library Let's Read Book cho tổ chức Asia Foundation_x000d_
+-Thành viên ban R&amp;D/ External Relations của WOW</v>
+      </c>
+      <c r="K71" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652057968480-916815275-Hằng-Phạm-CV.pdf</v>
+      </c>
+      <c r="L71" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>t</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C72" t="str">
+        <v>09/05/2022</v>
+      </c>
+      <c r="D72" t="str">
+        <v>t@gmail.com</v>
+      </c>
+      <c r="E72" t="str">
+        <v>12258888</v>
+      </c>
+      <c r="F72" t="str">
+        <v>https:/abcd.com</v>
+      </c>
+      <c r="G72" t="str">
+        <v>thgv</v>
+      </c>
+      <c r="H72" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="I72" t="str">
+        <v>bb</v>
+      </c>
+      <c r="J72" t="str">
+        <v>hhb</v>
+      </c>
+      <c r="K72" t="str">
+        <v>-</v>
+      </c>
+      <c r="L72" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Lại Quang Huy</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C73" t="str">
+        <v>09/09/2002</v>
+      </c>
+      <c r="D73" t="str">
+        <v>quanghuy8e@gmail.com</v>
+      </c>
+      <c r="E73" t="str">
+        <v>0857642745</v>
+      </c>
+      <c r="F73" t="str">
+        <v>https://www.facebook.com/profile.php?id=100015450498709</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Đại học Ngoại thương Hà Nội</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Qtkd</v>
+      </c>
+      <c r="J73" t="str">
+        <v>Một mình cân chạy lượng team NCKH, mới bước vào DA nên t chưa có j</v>
+      </c>
+      <c r="K73" t="str">
+        <v>-</v>
+      </c>
+      <c r="L73" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>Vũ Phương Minh</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C74" t="str">
+        <v>26/02/2003</v>
+      </c>
+      <c r="D74" t="str">
+        <v>vpminh26@gmail.com</v>
+      </c>
+      <c r="E74" t="str">
+        <v>0918334632</v>
+      </c>
+      <c r="F74" t="str">
+        <v>https://www.facebook.com/pminh26/</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Trường Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Quản lý dự án</v>
+      </c>
+      <c r="J74" t="str" xml:space="preserve">
+        <v xml:space="preserve">không có_x000d_
+_x000d_
+</v>
+      </c>
+      <c r="K74" t="str">
+        <v>-</v>
+      </c>
+      <c r="L74" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M74" t="str">
+        <v>Q&amp;M</v>
+      </c>
+      <c r="N74" t="str">
+        <v xml:space="preserve">Lương Hồng Nhung </v>
+      </c>
+      <c r="O74" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P74" t="str">
+        <v>14/10/2003</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>luongnhung1410@gmail.com</v>
+      </c>
+      <c r="R74" t="str">
+        <v>0329954280</v>
+      </c>
+      <c r="S74" t="str">
+        <v>https://www.facebook.com/profile.php?id=100025366599464</v>
+      </c>
+      <c r="T74" t="str">
+        <v>Trường Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="U74" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V74" t="str">
+        <v>Toán kinh tế</v>
+      </c>
+      <c r="W74" t="str">
+        <v>không có</v>
+      </c>
+      <c r="X74" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y74" t="str">
+        <v>Trần Thị Diễm Quỳnh</v>
+      </c>
+      <c r="Z74" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA74" t="str">
+        <v>27/05/2002</v>
+      </c>
+      <c r="AB74" t="str">
+        <v>quynhco275@gmail.com</v>
+      </c>
+      <c r="AC74" t="str">
+        <v>0356529642</v>
+      </c>
+      <c r="AD74" t="str">
+        <v>https://www.facebook.com/qik98lhp</v>
+      </c>
+      <c r="AE74" t="str">
+        <v>Trường Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="AF74" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG74" t="str">
+        <v>Định phí bảo hiểm và quản trị rủi ro</v>
+      </c>
+      <c r="AH74" t="str">
+        <v>không có</v>
+      </c>
+      <c r="AI74" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Vũ Thanh Tùng</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C75" t="str">
+        <v>01/09/2003</v>
+      </c>
+      <c r="D75" t="str">
+        <v>k60.2112340079@ftu.edu.vn</v>
+      </c>
+      <c r="E75" t="str">
+        <v>0387483855</v>
+      </c>
+      <c r="F75" t="str">
+        <v>https://www.facebook.com/thanhtung9103/</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Trường đại học Ngoại Thương cơ sở Hà Nội</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Ngân hàng và tài chính quốc tế CLC</v>
+      </c>
+      <c r="J75" t="str">
+        <v>Tham gia tổ chức 1 số hoạt động của đoàn đội và hoạt động hiến máu tình nguyện</v>
+      </c>
+      <c r="K75" t="str">
+        <v>-</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M75" t="str">
+        <v>Mad Titan</v>
+      </c>
+      <c r="N75" t="str">
+        <v xml:space="preserve">Hoàng Nhật Minh </v>
+      </c>
+      <c r="O75" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P75" t="str">
+        <v>22/10/2003</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>k60.2112340055@ftu.edu.vn</v>
+      </c>
+      <c r="R75" t="str">
+        <v>0793314459</v>
+      </c>
+      <c r="S75" t="str">
+        <v>https://www.facebook.com/profile.php?id=100016211140622</v>
+      </c>
+      <c r="T75" t="str">
+        <v>Trường đại học Ngoại Thương cơ sở Hà Nội</v>
+      </c>
+      <c r="U75" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V75" t="str">
+        <v>Ngân hàng và tài chính quốc tế CLC</v>
+      </c>
+      <c r="W75" t="str">
+        <v>Subleader team 40 cuộc thi WE, the icebreaker 2021</v>
+      </c>
+      <c r="X75" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y75" t="str">
+        <v>Đỗ Quý Vương</v>
+      </c>
+      <c r="Z75" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA75" t="str">
+        <v>09/01/2003</v>
+      </c>
+      <c r="AB75" t="str">
+        <v>k60.2113340033@ftu.edu.vn</v>
+      </c>
+      <c r="AC75" t="str">
+        <v>0981235468</v>
+      </c>
+      <c r="AD75" t="str">
+        <v>https://www.facebook.com/profile.php?id=100065533200178</v>
+      </c>
+      <c r="AE75" t="str">
+        <v>Trường đại học Ngoại Thương cơ sở Hà Nội</v>
+      </c>
+      <c r="AF75" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG75" t="str">
+        <v>Ngân hàng và tài chính quốc tế CLC</v>
+      </c>
+      <c r="AH75" t="str">
+        <v>Có khả năng giao tiếp, thuyết trình thành thạo</v>
+      </c>
+      <c r="AI75" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>Mạc Thị Thanh Vân</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C76" t="str">
+        <v>20/09/2002</v>
+      </c>
+      <c r="D76" t="str">
+        <v>macthithanhvan.bg@gmail.com</v>
+      </c>
+      <c r="E76" t="str">
+        <v>0912992891</v>
+      </c>
+      <c r="F76" t="str">
+        <v>https://www.facebook.com/macthithanhvan.cloudy/</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="J76" t="str" xml:space="preserve">
+        <v xml:space="preserve">Học bổng KKHT xuất sắc 2 kỳ năm học 2020-2021_x000d_
+Trưởng ban chuyên môn CLB Sinh viên nghiên cứu khoa học YRC - FTU_x000d_
+Á quân cuộc thi Economic Champion 2021_x000d_
+Top 5 Global Innovative Social Business Concept cuộc thi SBC 2021 và Youth Advisor cuộc thi SBC 2022</v>
+      </c>
+      <c r="K76" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652078958067-878094538-CV_Mạc Thị Thanh Vân.pdf</v>
+      </c>
+      <c r="L76" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M76" t="str">
+        <v>NDA</v>
+      </c>
+      <c r="N76" t="str">
+        <v>Tạ Phương Chi</v>
+      </c>
+      <c r="O76" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P76" t="str">
+        <v>16/08/2002</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>chitp16082002@gmail.com</v>
+      </c>
+      <c r="R76" t="str">
+        <v>0947186108</v>
+      </c>
+      <c r="S76" t="str">
+        <v>https://www.facebook.com/yeumeocuato</v>
+      </c>
+      <c r="T76" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="U76" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V76" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="W76" t="str">
+        <v>Top 20 Economic Champion</v>
+      </c>
+      <c r="X76" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652079070402-531850460-CV- TA PHUONG CHI_G'CONTEST 2022.pdf</v>
+      </c>
+      <c r="Y76" t="str">
+        <v>Hà Thanh Thảo</v>
+      </c>
+      <c r="Z76" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA76" t="str">
+        <v>14/01/2002</v>
+      </c>
+      <c r="AB76" t="str">
+        <v>thaoht.yrc@gmail.com</v>
+      </c>
+      <c r="AC76" t="str">
+        <v>0869244624</v>
+      </c>
+      <c r="AD76" t="str">
+        <v>https://www.facebook.com/profile.php?id=100021238714746</v>
+      </c>
+      <c r="AE76" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="AF76" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG76" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="AH76" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phó trưởng ban chuyên môn CLB Sinh viên nghiên cứu khoa học YRC - FTU_x000d_
+Trở thành trainer cho cuộc thi Asean Data Science Explores tại Đại học Ngoại thương và sử dụng thành thạo SAP Analytic Clouds.</v>
+      </c>
+      <c r="AI76" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652079071008-435321006-CV Hà Thanh Thảo.pdf</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>C</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C77" t="str">
+        <v>09/05/2022</v>
+      </c>
+      <c r="D77" t="str">
+        <v>abc@gnai.com</v>
+      </c>
+      <c r="E77" t="str">
+        <v>123456</v>
+      </c>
+      <c r="F77" t="str">
+        <v>http://facebook.com</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Fru</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Def</v>
+      </c>
+      <c r="J77" t="str">
+        <v>N/a</v>
+      </c>
+      <c r="K77" t="str">
+        <v>-</v>
+      </c>
+      <c r="L77" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>Hà Ngọc Minh Huyền</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C78" t="str">
+        <v>25/09/2002</v>
+      </c>
+      <c r="D78" t="str">
+        <v>ha.nm.huyen02@gmail.com</v>
+      </c>
+      <c r="E78" t="str">
+        <v>0836677122</v>
+      </c>
+      <c r="F78" t="str">
+        <v>https://www.facebook.com/h.huyen.2509</v>
+      </c>
+      <c r="G78" t="str">
+        <v>ĐH Ngoại thương</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Kinh tế đối ngoại</v>
+      </c>
+      <c r="J78" t="str" xml:space="preserve">
+        <v xml:space="preserve">Quán quân Cuộc thi Khởi nghiệp I-Startup 2022_x000d_
+Phó Chủ tịch - CLB Sinh viên Nghiên cứu khoa học - YRC FTU_x000d_
+Mentoring Consultant of Operation Team, Mentori Vietnam_x000d_
+Đại sứ truyền thông Social Business Creation, CHAT WITH EXPERT (Carlsberg x Mentori Vietnam), iVolunteer Vietnam</v>
+      </c>
+      <c r="K78" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652084188891-705518506-Ha Ngoc Minh Huyen.pdf</v>
+      </c>
+      <c r="L78" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>Nguyễn Thị Diệu Linh</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C79" t="str">
+        <v>23/01/2002</v>
+      </c>
+      <c r="D79" t="str">
+        <v>nguyenlynh2301@gmail.com</v>
+      </c>
+      <c r="E79" t="str">
+        <v>0386592651</v>
+      </c>
+      <c r="F79" t="str">
+        <v>https://www.facebook.com/ndieulinh231/</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Học viện Tài chính</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I79" t="str">
+        <v xml:space="preserve">Marketing </v>
+      </c>
+      <c r="J79" t="str" xml:space="preserve">
+        <v xml:space="preserve">+ Organizing Committee of King Of Marketing (KOM) 2021 attracted more than 1000 applications from 111 universities._x000d_
++ Media support for university events (possibility news coverage, event photography). An average of 2000 hits for small events and 10,000 hits for big events</v>
+      </c>
+      <c r="K79" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652084787005-834973616-Nguyen Thi Dieu Linh_Research of Startup Growth.pdf</v>
+      </c>
+      <c r="L79" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Đỗ Thành Đạt</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C80" t="str">
+        <v>17/02/2002</v>
+      </c>
+      <c r="D80" t="str">
+        <v>thanhdatcyo@gmail.com</v>
+      </c>
+      <c r="E80" t="str">
+        <v>0903458832</v>
+      </c>
+      <c r="F80" t="str">
+        <v>https://www.facebook.com/datdo1702/</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Trường Đại học Công Nghê, Đại học Quốc gia Hà Nội</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I80" t="str">
+        <v>Công nghệ thông tin</v>
+      </c>
+      <c r="J80" t="str" xml:space="preserve">
+        <v xml:space="preserve">Đội thi do VNG bình chọn hay nhất, Phần thi Data Science “Cuộc thi UET Hackathon Open 2022”_x000d_
+Đồng tác giả bài báo nghiên cứu tại Hội thảo quốc tế “Knowledge and Systems Engineering” lần thứ 13 (KSE 2021)._x000d_
+Giải Ba Hội nghị sinh viên nghiên cứu khoa học Trường Đại học Công nghệ năm 2021._x000d_
+Giải Khuyến Khích cuộc thi Sáng tạo Thanh thiếu niên Nhi đồng toàn quốc lần thứ 15._x000d_
+Giải Nhì HSG cấp Tỉnh môn Tin học năm học 2018 - 2019._x000d_
+Giải Triển vọng cuộc thi Mini Hackathon - “Act Inno” của ngày hội STEME Day 2019._x000d_
+Giải Nhì Nội dung “Thư gửi tương lai” - Hội thi trường học tiết kiệm điện tỉnh Nghệ An năm 2015._x000d_
+Giải Nhất cuộc thi Khoa học kỹ thuật tỉnh Nghệ An năm học 2018 - 2019.</v>
+      </c>
+      <c r="K80" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652084930765-716499758-CV_DoThanhDat.pdf</v>
+      </c>
+      <c r="L80" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M80" t="str">
+        <v>Poseidon</v>
+      </c>
+      <c r="N80" t="str">
+        <v>Nguyễn Văn Duy</v>
+      </c>
+      <c r="O80" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P80" t="str">
+        <v>20/06/1998</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>duy200698icloud@gmail.com</v>
+      </c>
+      <c r="R80" t="str">
+        <v>0354652337</v>
+      </c>
+      <c r="S80" t="str">
+        <v>https://www.facebook.com/vanduy.nguyen.9400/</v>
+      </c>
+      <c r="T80" t="str">
+        <v>Trường Đại học Ngoại Thương</v>
+      </c>
+      <c r="U80" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V80" t="str">
+        <v>Kinh tế Quốc Tế</v>
+      </c>
+      <c r="W80" t="str" xml:space="preserve">
+        <v xml:space="preserve">Có kinh nghiệm làm Team Leader_x000d_
+Có kinh nghiệm thao tác với số liệu</v>
+      </c>
+      <c r="X80" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652085037712-139889438-CV_NguyenVanDuy.pdf</v>
+      </c>
+      <c r="Y80" t="str">
+        <v>Nguyễn Anh Thư</v>
+      </c>
+      <c r="Z80" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA80" t="str">
+        <v>11/07/2003</v>
+      </c>
+      <c r="AB80" t="str">
+        <v>anhthuw1107@gmail.com</v>
+      </c>
+      <c r="AC80" t="str">
+        <v>0348259072</v>
+      </c>
+      <c r="AD80" t="str">
+        <v>https://www.facebook.com/ng.anhthu117</v>
+      </c>
+      <c r="AE80" t="str">
+        <v>Đại học Bách Khoa Hà Nội</v>
+      </c>
+      <c r="AF80" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG80" t="str">
+        <v>Phân tích kinh doanh</v>
+      </c>
+      <c r="AH80" t="str" xml:space="preserve">
+        <v xml:space="preserve">Giải nhất Dự án Khởi nghiệp cấp trường (Trường Đại học Ngoại ngữ -_x000d_
+ĐHQGHN)_x000d_
+_x000d_
+2022_x000d_
+_x000d_
+Giải ba Nghiên cứu khoa học cấp trường (Trường Đại học Ngoại ngữ -_x000d_
+ĐHQGHN)</v>
+      </c>
+      <c r="AI80" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652085038526-603981246-CV_NguyenAnhThu.pdf</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Nguyễn Thị Khánh Linh</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C81" t="str">
+        <v>31/12/2002</v>
+      </c>
+      <c r="D81" t="str">
+        <v>ngthikhanhlinh2002@gmail.com</v>
+      </c>
+      <c r="E81" t="str">
+        <v>0977516636</v>
+      </c>
+      <c r="F81" t="str">
+        <v>https://www.facebook.com/linh.nguyenthikhanh.3388</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Học viện ngân hàng</v>
+      </c>
+      <c r="H81" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I81" t="str">
+        <v>Hệ thống thông tin quản lý</v>
+      </c>
+      <c r="J81" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="K81" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652094094859-793288003-CV - Nguyễn Thị Khánh Linh.pdf</v>
+      </c>
+      <c r="L81" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>Vương Thành Công</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C82" t="str">
+        <v>02/03/2001</v>
+      </c>
+      <c r="D82" t="str">
+        <v>thanhcongw2664@gmail.com</v>
+      </c>
+      <c r="E82" t="str">
+        <v>0986562105</v>
+      </c>
+      <c r="F82" t="str">
+        <v>https://www.facebook.com/cong.vuong.9279/</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Trường Đại học Ngoại Thương</v>
+      </c>
+      <c r="H82" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Chất lượng cao Kinh tế quốc tế</v>
+      </c>
+      <c r="J82" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Giải tin học trẻ không chuyên_x000d_
+- Nhận được vô vàn chứng chỉ từ các khoá học online_x000d_
+- Tìm hiểu về Data Analytics được gần một năm</v>
+      </c>
+      <c r="K82" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652097600476-76754518-VUONG THANH CONG - Resumé.pdf</v>
+      </c>
+      <c r="L82" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>Bùi Thị Quỳnh</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C83" t="str">
+        <v>23/08/2000</v>
+      </c>
+      <c r="D83" t="str">
+        <v>quynhbui2308@ftu.edu.vn</v>
+      </c>
+      <c r="E83" t="str">
+        <v>0853460295</v>
+      </c>
+      <c r="F83" t="str">
+        <v>https://www.facebook.com/qchan.2308/</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Trường Đại học Ngoại Thương</v>
+      </c>
+      <c r="H83" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Tài chính quốc tế</v>
+      </c>
+      <c r="J83" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Đạt học bổng xuất sắc của trường Đại học Ngoại Thương_x000d_
+- Lớp trưởng lớp hành chính, tham gia hoạt động của CLB Thương mại điện tử trường Đại học Ngoại Thương</v>
+      </c>
+      <c r="K83" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652105790787-190047341-CV - Bui Thi Quynh.pdf</v>
+      </c>
+      <c r="L83" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M83" t="str">
+        <v>QHA</v>
+      </c>
+      <c r="N83" t="str">
+        <v>Lê Minh Hằng</v>
+      </c>
+      <c r="O83" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P83" t="str">
+        <v>11/07/2000</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>hanglm.ftuforum@gmail.com</v>
+      </c>
+      <c r="R83" t="str">
+        <v>0914453990</v>
+      </c>
+      <c r="S83" t="str">
+        <v>https://www.facebook.com/profile.php?id=100004451506352</v>
+      </c>
+      <c r="T83" t="str">
+        <v>Trường Đại học Ngoại Thương</v>
+      </c>
+      <c r="U83" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="V83" t="str">
+        <v>Tài chính quốc tế</v>
+      </c>
+      <c r="W83" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Đạt học bổng khuyến khích học tập của trường Đại học Ngoại Thương_x000d_
+- Tham gia 2 CLB tại trường Ngoại Thương: CLB Thương mại điện tử và Diễn đàn trường đại học Ngoại Thương FTU Forum</v>
+      </c>
+      <c r="X83" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652106082137-175994140-CV.pdf</v>
+      </c>
+      <c r="Y83" t="str">
+        <v>Hoàng Việt Anh</v>
+      </c>
+      <c r="Z83" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="AA83" t="str">
+        <v>26/02/2000</v>
+      </c>
+      <c r="AB83" t="str">
+        <v>anhviethoang2000@gmail.com</v>
+      </c>
+      <c r="AC83" t="str">
+        <v>0383955848</v>
+      </c>
+      <c r="AD83" t="str">
+        <v>https://www.facebook.com/profile.php?id=100006355380242</v>
+      </c>
+      <c r="AE83" t="str">
+        <v>Đại học Công nghệ - Đại học quốc gia Hà Nội</v>
+      </c>
+      <c r="AF83" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="AG83" t="str">
+        <v>Khoa học máy tính</v>
+      </c>
+      <c r="AH83" t="str" xml:space="preserve">
+        <v xml:space="preserve">- GPA: 3.91/4.0_x000d_
+- Học bổng khuyến khích học tập tại trường Đại học Công nghệ_x000d_
+- Thành thạo các ngôn ngữ Python, C++, Nodejs</v>
+      </c>
+      <c r="AI83" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Nguyễn Thị Hương Giang</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C84" t="str">
+        <v>06/08/2003</v>
+      </c>
+      <c r="D84" t="str">
+        <v>nguyengiang26082003@gmail.com</v>
+      </c>
+      <c r="E84" t="str">
+        <v>0363582003</v>
+      </c>
+      <c r="F84" t="str">
+        <v>https://www.facebook.com/profile.php?id=100010246748863</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Đại học Kinh tế Quốc dân</v>
+      </c>
+      <c r="H84" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Kiểm toán tích hợp chứng chỉ quốc tế ICAEW</v>
+      </c>
+      <c r="J84" t="str">
+        <v>Vòng 2  cuộc thi THE CONQUEROR – NEU ENGLISH OLYMPIAD 2022</v>
+      </c>
+      <c r="K84" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652109803531-922696832-Nguyen-Thi-Huong-Giang-CV.pdf</v>
+      </c>
+      <c r="L84" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M84" t="str">
+        <v>F'Conte</v>
+      </c>
+      <c r="N84" t="str">
+        <v>Phan Thị Thanh Thủy</v>
+      </c>
+      <c r="O84" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P84" t="str">
+        <v>09/11/2003</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>k60.2114110306@ftu.edu.vn</v>
+      </c>
+      <c r="R84" t="str">
+        <v>0818664375</v>
+      </c>
+      <c r="S84" t="str">
+        <v>https://www.facebook.com/phanthuy333</v>
+      </c>
+      <c r="T84" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="U84" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="V84" t="str">
+        <v>Kinh tế đối ngoại</v>
+      </c>
+      <c r="W84" t="str">
+        <v>Thành viên câu lạc bộ Khởi nghiệp Hà Nội</v>
+      </c>
+      <c r="X84" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652109864696-459000511-CV_Phan-Thị-Thanh-Thuỷ.pdf</v>
+      </c>
+      <c r="Y84" t="str">
+        <v>Lê Thị Thanh</v>
+      </c>
+      <c r="Z84" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA84" t="str">
+        <v>16/07/2003</v>
+      </c>
+      <c r="AB84" t="str">
+        <v>k60.2114110280@ftu.edu.vn</v>
+      </c>
+      <c r="AC84" t="str">
+        <v>0384231961</v>
+      </c>
+      <c r="AD84" t="str">
+        <v>https://www.facebook.com/phu ongthanh.le.184007</v>
+      </c>
+      <c r="AE84" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="AF84" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="AG84" t="str">
+        <v>Kinh tế đối ngoại</v>
+      </c>
+      <c r="AH84" t="str">
+        <v>Thành viên tọa đàm Viện KT&amp;KDQT, Đại học Ngoại thương</v>
+      </c>
+      <c r="AI84" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652109865672-35445167-CV-Thanh.pdf</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Nguyễn Trúc Anh Nhung</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C85" t="str">
+        <v>06/08/2002</v>
+      </c>
+      <c r="D85" t="str">
+        <v>anhnhung6822@gmail.com</v>
+      </c>
+      <c r="E85" t="str">
+        <v>0968469772</v>
+      </c>
+      <c r="F85" t="str">
+        <v>https://www.facebook.com/anhnhung68/</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Kinh tế - ĐHQGHN</v>
+      </c>
+      <c r="H85" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Kinh tế và kinh doanh quốc tế</v>
+      </c>
+      <c r="J85" t="str">
+        <v>Tham gia hoạt động trong một số câu lạc bộ học thuật, tình nguyện và một số hoạt động tại trường (chương trình chào tân, tư vấn tuyển sinh). Bảo vệ thành công công trình NCKH sinh viên về chủ đề dịch chuyển chuỗi cung ứng toàn cầu. Từng tham gia Leadership Conference 2021 do AIESEC in Vietnam và UNICEF đồng tổ chức.</v>
+      </c>
+      <c r="K85" t="str">
+        <v>-</v>
+      </c>
+      <c r="L85" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>Ngô Thị Thanh Nhàn</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C86" t="str">
+        <v>22/11/2002</v>
+      </c>
+      <c r="D86" t="str">
+        <v>nhanth61@gmail.com</v>
+      </c>
+      <c r="E86" t="str">
+        <v>0357768586</v>
+      </c>
+      <c r="F86" t="str">
+        <v>https://www.facebook.com/an.nh22</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Đại học Kinh tế - Đại học Quốc gia Hà Nội</v>
+      </c>
+      <c r="H86" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="J86" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Tham gia ban tổ chức của một số chương trình học thuật _x000d_
+- Tham gia tổ chức hoạt động tình nguyện</v>
+      </c>
+      <c r="K86" t="str">
+        <v>-</v>
+      </c>
+      <c r="L86" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Ngô Thị Thanh Nhàn</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C87" t="str">
+        <v>22/11/2002</v>
+      </c>
+      <c r="D87" t="str">
+        <v>nhanth61@gmail.com</v>
+      </c>
+      <c r="E87" t="str">
+        <v>0357768586</v>
+      </c>
+      <c r="F87" t="str">
+        <v>https://www.facebook.com/an.nh22</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Ki</v>
+      </c>
+      <c r="H87" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Kinh tế và kinh doanh quốc tế</v>
+      </c>
+      <c r="J87" t="str">
+        <v>Tham gia ban tổ chức một số chương trình học thuật và tổ chức các hoạt động tình nguyện.</v>
+      </c>
+      <c r="K87" t="str">
+        <v>-</v>
+      </c>
+      <c r="L87" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v xml:space="preserve">Hoàng Trúc Chi </v>
+      </c>
+      <c r="B88" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C88" t="str">
+        <v>06/03/2003</v>
+      </c>
+      <c r="D88" t="str">
+        <v>k60.2112250020@ftu.edu.vn</v>
+      </c>
+      <c r="E88" t="str">
+        <v>0823193396</v>
+      </c>
+      <c r="F88" t="str">
+        <v>https://www.facebook.com/profile.php?id=100035568106147</v>
+      </c>
+      <c r="G88" t="str">
+        <v>FTU</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Quản trị kinh doanh</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="K88" t="str">
+        <v>-</v>
+      </c>
+      <c r="L88" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Nguyen Tan Thanh Giang</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C89" t="str">
+        <v>01/08/2000</v>
+      </c>
+      <c r="D89" t="str">
+        <v>nttg8100@gmail.com</v>
+      </c>
+      <c r="E89" t="str">
+        <v>0364002059</v>
+      </c>
+      <c r="F89" t="str">
+        <v>https://www.facebook.com/nttg8100</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Đại học Tân Tạo</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Công Nghệ Sinh Học- Khoa học dữ liệu Y sinh</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Thu thap phan tich du lieu trong y sinh</v>
+      </c>
+      <c r="K89" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652113904523-91866201-Thanh-Giang_Tan_Nguyen_Resume.pdf</v>
+      </c>
+      <c r="L89" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Lý Mỹ Vân</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C90" t="str">
+        <v>30/12/2001</v>
+      </c>
+      <c r="D90" t="str">
+        <v>myvan7395@gmail.com</v>
+      </c>
+      <c r="E90" t="str">
+        <v>0703334948</v>
+      </c>
+      <c r="F90" t="str">
+        <v>https://www.facebook.com/lmyvan93/</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Trường Đại học Kinh Tế Luật</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Quản Trị Kinh Doanh</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Leader Ban Nhân Sự và Tiểu Ban Dịch Thuật của Youth Opportunities, Leader Ban Tài Chính của ZGrow Vietnam, Đề tài nghiên cứu khoa học được đề cử cho giải Nhà Nghiên Cứu Trẻ cấp trường.</v>
+      </c>
+      <c r="K90" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652114346828-171440799-Lý Mỹ Vân (3).pdf</v>
+      </c>
+      <c r="L90" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Kim Thị Hồng Minh</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C91" t="str">
+        <v>21/11/2002</v>
+      </c>
+      <c r="D91" t="str">
+        <v>minhminh21112002@gmail.com</v>
+      </c>
+      <c r="E91" t="str">
+        <v>0857525060</v>
+      </c>
+      <c r="F91" t="str">
+        <v>http:hdhx.com</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Kinh tế và phát triển quốc tế</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Không có</v>
+      </c>
+      <c r="K91" t="str">
+        <v>-</v>
+      </c>
+      <c r="L91" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Kim Thị Hồng Minh</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C92" t="str">
+        <v>21/11/2002</v>
+      </c>
+      <c r="D92" t="str">
+        <v>minhminh21112002@gmail.com</v>
+      </c>
+      <c r="E92" t="str">
+        <v>0857525060</v>
+      </c>
+      <c r="F92" t="str">
+        <v>https://m.facebook.com/littlegardener02</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I92" t="str">
+        <v>Kinh tế và phát triển quốc tế</v>
+      </c>
+      <c r="J92" t="str">
+        <v>GPA: 3.55</v>
+      </c>
+      <c r="K92" t="str">
+        <v>-</v>
+      </c>
+      <c r="L92" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v xml:space="preserve">Đặng Thị Ngọc Oanh </v>
+      </c>
+      <c r="B93" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C93" t="str">
+        <v>07/01/2001</v>
+      </c>
+      <c r="D93" t="str">
+        <v>dangthingocoanh15@gmail.com</v>
+      </c>
+      <c r="E93" t="str">
+        <v>0383573701</v>
+      </c>
+      <c r="F93" t="str">
+        <v>https://www.facebook.com/profile.php?id=100028717184450</v>
+      </c>
+      <c r="G93" t="str">
+        <v xml:space="preserve">Đại học kinh tế quốc dân </v>
+      </c>
+      <c r="H93" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I93" t="str">
+        <v xml:space="preserve">Hệ thống thông tin quản lý </v>
+      </c>
+      <c r="J93" t="str" xml:space="preserve">
+        <v xml:space="preserve">Em đã hoàn thành 1 số chứng chỉ trên LinkedIn về sử dụng công cụ Excel, SQL, Python để phân tích trực quan hoá dữ liệu _x000d_
+Ngoài ra em còn tích cực tham gia các dự kiện về data để nắm thêm kiến thức về Data Analyst giao lưu với các chuyên gia đầu ngành về phân tích dữ liệu ạ_x000d_
+https://drive.google.com/file/d/10n2Cq1J1E1LOYFY3ePY0N3EODtiov6W3/view?usp=drivesdk</v>
+      </c>
+      <c r="K93" t="str">
+        <v>-</v>
+      </c>
+      <c r="L93" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>Nguyễn Hương Giang</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C94" t="str">
+        <v>17/07/12002</v>
+      </c>
+      <c r="D94" t="str">
+        <v>giangnhhs163129@fpt.edu.vn</v>
+      </c>
+      <c r="E94" t="str">
+        <v>0965177148</v>
+      </c>
+      <c r="F94" t="str">
+        <v>https://www.facebook.com/gianghuong17/</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Đại học FPT</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Kinh doanh quôc stees</v>
+      </c>
+      <c r="J94" t="str" xml:space="preserve">
+        <v xml:space="preserve">- 3 năm học sinh giỏi_x000d_
+- Học bổng 100% Đại học FPT_x000d_
+- GPA: 9.1_x000d_
+- Leader một số dự án và môn học ở trường</v>
+      </c>
+      <c r="K94" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652140410476-802627754-Nguyễn Hương Giang.pdf</v>
+      </c>
+      <c r="L94" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Phạm Hải Yến</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C95" t="str">
+        <v>25/08/2003</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Yenphhs170751@fpt.edu.vn</v>
+      </c>
+      <c r="E95" t="str">
+        <v>0342772508</v>
+      </c>
+      <c r="F95" t="str">
+        <v>https://www.facebook.com/profile.php?id=100021233437628</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Đại học FPT</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Năm 1</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Trí tuệ nhân tạo</v>
+      </c>
+      <c r="J95" t="str">
+        <v>Có nền tảng lập trình tốt</v>
+      </c>
+      <c r="K95" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652142823008-708758749-Pham-Hai-Yen.pdf</v>
+      </c>
+      <c r="L95" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Lê Dương Thanh Thảo</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C96" t="str">
+        <v>24/09/2002</v>
+      </c>
+      <c r="D96" t="str">
+        <v>ldtt.thao@gmail.com</v>
+      </c>
+      <c r="E96" t="str">
+        <v>0906554710</v>
+      </c>
+      <c r="F96" t="str">
+        <v>https://www.facebook.com/profile.php?id=100012985183222</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Đại Học Mở TP.HCM</v>
+      </c>
+      <c r="H96" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Hệ Thống Thông Tin Quản Lý</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Tham gia The Future Business Analyst</v>
+      </c>
+      <c r="K96" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652146042632-979889356-LE DUONG THANH THAO.pdf</v>
+      </c>
+      <c r="L96" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Nguyễn Phan Thủy Tiên</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C97" t="str">
+        <v>18/04/2001</v>
+      </c>
+      <c r="D97" t="str">
+        <v>thuytien220018@gmail.com</v>
+      </c>
+      <c r="E97" t="str">
+        <v>0333657186</v>
+      </c>
+      <c r="F97" t="str">
+        <v>https://www.facebook.com/thuytienlunatica/</v>
+      </c>
+      <c r="G97" t="str">
+        <v>FTU</v>
+      </c>
+      <c r="H97" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Thương mại Quốc tế</v>
+      </c>
+      <c r="J97" t="str">
+        <v>fhff</v>
+      </c>
+      <c r="K97" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652146292812-53952440-CV_Nguyễn Phan Thủy Tiên.pdf</v>
+      </c>
+      <c r="L97" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Nguyễn Thị Ngân</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C98" t="str">
+        <v>15/08/2001</v>
+      </c>
+      <c r="D98" t="str">
+        <v>ngannt.osh@gmail.com</v>
+      </c>
+      <c r="E98" t="str">
+        <v>0914865412</v>
+      </c>
+      <c r="F98" t="str">
+        <v>https://www.facebook.com/komachi.158/</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="H98" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Không</v>
+      </c>
+      <c r="K98" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652155058299-490714639-CV-Nguyễn Thị Ngân.pdf</v>
+      </c>
+      <c r="L98" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M98" t="str">
+        <v>8&amp;Tea</v>
+      </c>
+      <c r="N98" t="str">
+        <v>Nguyễn Thị Thu Huyền</v>
+      </c>
+      <c r="O98" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P98" t="str">
+        <v>22/10/2001</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>ntthuhuyen01@gmail.com</v>
+      </c>
+      <c r="R98" t="str">
+        <v>0868 456 212</v>
+      </c>
+      <c r="S98" t="str">
+        <v>https://www.facebook.com/ntthuynn</v>
+      </c>
+      <c r="T98" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="U98" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V98" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="W98" t="str">
+        <v>Học bổng KKHT Học kỳ II trường Đại học Ngoại thương 2021</v>
+      </c>
+      <c r="X98" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652155489283-296983475-CV-Nguyễn Thị Thu Huyền.pdf</v>
+      </c>
+      <c r="Y98" t="str">
+        <v>Nguyễn Thị Thùy Trang</v>
+      </c>
+      <c r="Z98" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA98" t="str">
+        <v>16/03/2001</v>
+      </c>
+      <c r="AB98" t="str">
+        <v>trangantt.fyu@gmail.com</v>
+      </c>
+      <c r="AC98" t="str">
+        <v>0989526745</v>
+      </c>
+      <c r="AD98" t="str">
+        <v>https://www.facebook.com/tranggg16</v>
+      </c>
+      <c r="AE98" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="AF98" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG98" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="AH98" t="str">
+        <v>Không</v>
+      </c>
+      <c r="AI98" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652155489499-971510063-CV_Nguyễn Thị Thùy Trang.pdf</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Lã Đức Quân</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C99" t="str">
+        <v>02/03/2001</v>
+      </c>
+      <c r="D99" t="str">
+        <v>k58.1912210166@ftu.edu.vn</v>
+      </c>
+      <c r="E99" t="str">
+        <v>0929532308</v>
+      </c>
+      <c r="F99" t="str">
+        <v>https://www.facebook.com/laducquan.2001/</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H99" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Quản trị Kinh doanh Quốc tế</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Không</v>
+      </c>
+      <c r="K99" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652163535262-425533262-LaDucQuan_CV.pdf</v>
+      </c>
+      <c r="L99" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M99" t="str">
+        <v>TvT</v>
+      </c>
+      <c r="N99" t="str">
+        <v>Phan Phương Thuý</v>
+      </c>
+      <c r="O99" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P99" t="str">
+        <v>04/10/2002</v>
+      </c>
+      <c r="Q99" t="str">
+        <v>phan99689@gmail.com</v>
+      </c>
+      <c r="R99" t="str">
+        <v>0906141790</v>
+      </c>
+      <c r="S99" t="str">
+        <v>https://www.facebook.com/profile.php?id=100005372837061</v>
+      </c>
+      <c r="T99" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="U99" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V99" t="str">
+        <v>Kinh doanh Quốc tế</v>
+      </c>
+      <c r="W99" t="str">
+        <v>Không</v>
+      </c>
+      <c r="X99" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y99" t="str">
+        <v>Lê Ngọc Trâm</v>
+      </c>
+      <c r="Z99" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA99" t="str">
+        <v>06/09/2002</v>
+      </c>
+      <c r="AB99" t="str">
+        <v>tramln12.chc@gmail.com</v>
+      </c>
+      <c r="AC99" t="str">
+        <v>0985435854</v>
+      </c>
+      <c r="AD99" t="str">
+        <v>https://www.facebook.com/NgocTram6902</v>
+      </c>
+      <c r="AE99" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="AF99" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG99" t="str">
+        <v>Kinh doanh Quốc tế</v>
+      </c>
+      <c r="AH99" t="str">
+        <v>Không</v>
+      </c>
+      <c r="AI99" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v xml:space="preserve">Vũ Đức Duy </v>
+      </c>
+      <c r="B100" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C100" t="str">
+        <v>03/06/2001</v>
+      </c>
+      <c r="D100" t="str">
+        <v>vuducduy2001@gmail.com</v>
+      </c>
+      <c r="E100" t="str">
+        <v>0909679710</v>
+      </c>
+      <c r="F100" t="str">
+        <v>https://www.facebook.com/duyvudap3536/</v>
+      </c>
+      <c r="G100" t="str">
+        <v>RMIT</v>
+      </c>
+      <c r="H100" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Finance</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Finalist of ACCA scholarship</v>
+      </c>
+      <c r="K100" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652164957743-361416794-Team Name _ Vu Duc Duy _ 0909679710 (2).pdf</v>
+      </c>
+      <c r="L100" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M100" t="str">
+        <v>Activators</v>
+      </c>
+      <c r="N100" t="str">
+        <v xml:space="preserve">Hoàng Minh Huệ </v>
+      </c>
+      <c r="O100" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P100" t="str">
+        <v>27/04/2002</v>
+      </c>
+      <c r="Q100" t="str">
+        <v>hhue4014@gmail.com</v>
+      </c>
+      <c r="R100" t="str">
+        <v>0934922180</v>
+      </c>
+      <c r="S100" t="str">
+        <v>https://www.facebook.com/Hhue2704</v>
+      </c>
+      <c r="T100" t="str">
+        <v>Y dược Thái Nguyên</v>
+      </c>
+      <c r="U100" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V100" t="str">
+        <v xml:space="preserve">Dược </v>
+      </c>
+      <c r="W100" t="str">
+        <v xml:space="preserve">Leader of Human Resource of English Debate Club </v>
+      </c>
+      <c r="X100" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652165649486-917211842-HoangMinhHue_CV.pdf</v>
+      </c>
+      <c r="Y100" t="str">
+        <v xml:space="preserve">Lê Nguyễn Khánh Chi </v>
+      </c>
+      <c r="Z100" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA100" t="str">
+        <v>08/02/2001</v>
+      </c>
+      <c r="AB100" t="str">
+        <v>Ctyanhduong@gmail.com</v>
+      </c>
+      <c r="AC100" t="str">
+        <v>0914410100</v>
+      </c>
+      <c r="AD100" t="str">
+        <v>https://www.facebook.com/bang.chuphan</v>
+      </c>
+      <c r="AE100" t="str">
+        <v>RMIT</v>
+      </c>
+      <c r="AF100" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG100" t="str">
+        <v xml:space="preserve">Finance </v>
+      </c>
+      <c r="AH100" t="str">
+        <v xml:space="preserve">Data analyst intern </v>
+      </c>
+      <c r="AI100" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>Nguyễn Đặng Sơn</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C101" t="str">
+        <v>26/05/2000</v>
+      </c>
+      <c r="D101" t="str">
+        <v>k57.1815520093@ftu.edu.vn</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0934324623</v>
+      </c>
+      <c r="F101" t="str">
+        <v>https://www.facebook.com/profile.php?id=100006525049577</v>
+      </c>
+      <c r="G101" t="str">
+        <v>ĐH Ngoại Thương</v>
+      </c>
+      <c r="H101" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Kinh doanh quốc tế theo mô hình tiên tiến Nhật Bản</v>
+      </c>
+      <c r="J101" t="str" xml:space="preserve">
+        <v xml:space="preserve">- giải Nhất VBIZ 3 Business Competition_x000d_
+- Subleader dự án của United Nation in Vietnam</v>
+      </c>
+      <c r="K101" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652168943090-523928962-CV Nguyen Dang Son FTU.pdf</v>
+      </c>
+      <c r="L101" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M101" t="str">
+        <v>SAY ONE</v>
+      </c>
+      <c r="N101" t="str">
+        <v>Nguyễn Minh Anh</v>
+      </c>
+      <c r="O101" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P101" t="str">
+        <v>20/07/2000</v>
+      </c>
+      <c r="Q101" t="str">
+        <v>minhanhng152k57@gmail.com</v>
+      </c>
+      <c r="R101" t="str">
+        <v>0981543639</v>
+      </c>
+      <c r="S101" t="str">
+        <v>https://www.facebook.com/minhanhnggg</v>
+      </c>
+      <c r="T101" t="str">
+        <v>ĐH Ngoại Thương</v>
+      </c>
+      <c r="U101" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="V101" t="str">
+        <v>Kinh doanh quốc tế theo mô hình tiên tiến Nhật Bản</v>
+      </c>
+      <c r="W101" t="str">
+        <v>giải nhất VBIZ III Business Competition</v>
+      </c>
+      <c r="X101" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652169042498-179692207-CV-Nguyen-Minh-Anh.pdf</v>
+      </c>
+      <c r="Y101" t="str">
+        <v>Hoàng Bảo Yến</v>
+      </c>
+      <c r="Z101" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA101" t="str">
+        <v>11/05/2000</v>
+      </c>
+      <c r="AB101" t="str">
+        <v>baoyenk47cnn@gmail.com</v>
+      </c>
+      <c r="AC101" t="str">
+        <v>0396060646</v>
+      </c>
+      <c r="AD101" t="str">
+        <v>https://www.facebook.com/profile.php?id=100010000802475</v>
+      </c>
+      <c r="AE101" t="str">
+        <v>ĐH Ngoại Thương</v>
+      </c>
+      <c r="AF101" t="str">
+        <v>Năm 4</v>
+      </c>
+      <c r="AG101" t="str">
+        <v>Kinh tế đối ngoại tiếng Nhật</v>
+      </c>
+      <c r="AH101" t="str">
+        <v>Cofounder CTB Gass</v>
+      </c>
+      <c r="AI101" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652169043099-690070875-Hoang_Bao_Yen_CV.pdf</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>H</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C102" t="str">
+        <v>10/05/2022</v>
+      </c>
+      <c r="D102" t="str">
+        <v>abc@gmail.com</v>
+      </c>
+      <c r="E102" t="str">
+        <v>098564156</v>
+      </c>
+      <c r="F102" t="str">
+        <v>https://www.google.com/search?q=chi%E1%BA%BFn+th%E1%BA%AFng+b%E1%BA%A3n+th%C3%A2n+d%E1%BB%85+hay+kh%C3%B3&amp;oq=chi%E1%BA%BFn+th%E1%BA%AFng+b%E1%BA%A3n+th%C3%A2n+d%E1%BB%85+hay+kh%C3%B3&amp;aqs=chrome..69i57.6354j0j9&amp;client=ms-android-huawei&amp;sourceid=chrome-mobile&amp;ie=UTF-8</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Hfd</v>
+      </c>
+      <c r="H102" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Fcc</v>
+      </c>
+      <c r="J102" t="str">
+        <v>Gh</v>
+      </c>
+      <c r="K102" t="str">
+        <v>-</v>
+      </c>
+      <c r="L102" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>Nguyễn Quỳnh Mai</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C103" t="str">
+        <v>31/03/2002</v>
+      </c>
+      <c r="D103" t="str">
+        <v>quynhmai.cbn1234@gmail.com</v>
+      </c>
+      <c r="E103" t="str">
+        <v>0338659588</v>
+      </c>
+      <c r="F103" t="str">
+        <v>https://www.facebook.com/profile.php?id=100059517491033</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="H103" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I103" t="str">
+        <v>Kinh tế Quốc tế</v>
+      </c>
+      <c r="J103" t="str" xml:space="preserve">
+        <v xml:space="preserve">Top 11 NEU The Conqueror by NEU English Olympiad_x000d_
+GIải Nhất cuộc thi Hùng biện Tiếng Anh cấp Thành phố năm 2019</v>
+      </c>
+      <c r="K103" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652172819109-8263956-G contest.pdf</v>
+      </c>
+      <c r="L103" t="str">
+        <v>Chưa có team</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
+        <v>Nguyễn Thị Quỳnh Anh</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C104" t="str">
+        <v>22/02/2002</v>
+      </c>
+      <c r="D104" t="str">
+        <v>quynhanh2202ib@gmail.com</v>
+      </c>
+      <c r="E104" t="str">
+        <v>0823877609</v>
+      </c>
+      <c r="F104" t="str">
+        <v>https://www.facebook.com/ko.nguyen.75641</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H104" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I104" t="str">
+        <v>Kinh doanh quốc tế</v>
+      </c>
+      <c r="J104" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Cộng tác viên tổng hợp dữ liệu tại Công ty Power Gate_x000d_
+2. Học bổng khuyến khích học tập loại Giỏi năm 2020-2021</v>
+      </c>
+      <c r="K104" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652189215187-378707998-CV Nguyễn Thị Quỳnh Anh.pdf</v>
+      </c>
+      <c r="L104" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M104" t="str">
+        <v>DAM</v>
+      </c>
+      <c r="N104" t="str">
+        <v>Nguyễn Ngọc Minh</v>
+      </c>
+      <c r="O104" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P104" t="str">
+        <v>19/11/2001</v>
+      </c>
+      <c r="Q104" t="str">
+        <v>minnguyen19112001@gmail.com</v>
+      </c>
+      <c r="R104" t="str">
+        <v>0919003795</v>
+      </c>
+      <c r="S104" t="str">
+        <v>https://www.facebook.com/profile.php?id=100015685956573</v>
+      </c>
+      <c r="T104" t="str">
+        <v>Ngoại thương</v>
+      </c>
+      <c r="U104" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V104" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="W104" t="str">
+        <v>Tham gia Cuộc thi Sinh viên nghiên cứu khoa học cấp trường do Trường Đại học Ngoại thương tổ chức</v>
+      </c>
+      <c r="X104" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652189841782-717650463-CV - Nguyễn Ngọc Minh.pdf</v>
+      </c>
+      <c r="Y104" t="str">
+        <v>Phùng Thị Kim Dung</v>
+      </c>
+      <c r="Z104" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA104" t="str">
+        <v>26/08/2001</v>
+      </c>
+      <c r="AB104" t="str">
+        <v>k58.1914410241@ftu.edu.vn</v>
+      </c>
+      <c r="AC104" t="str">
+        <v>0397655201</v>
+      </c>
+      <c r="AD104" t="str">
+        <v>https://www.facebook.com/dungnhidongcs</v>
+      </c>
+      <c r="AE104" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="AF104" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG104" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="AH104" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Học bổng KKHT loại A trường ĐHNT học kỳ 1 năm học 2019-2020_x000d_
+2. Thực tập sinh Trung tâm Sáng tạo &amp; Ươm tạo Trường Đại học Ngoại_x000d_
+thương FIIS_x000d_
+3. Tham gia cuộc thi Sinh viên nghiên cứu khoa học do_x000d_
+Trường Đại học Ngoại thương tổ chức</v>
+      </c>
+      <c r="AI104" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652189841999-777436404-CV - Phung Thi Kim Dung.pdf</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
+        <v>Nguyễn Thị Phương Anh</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C105" t="str">
+        <v>17/04/2002</v>
+      </c>
+      <c r="D105" t="str">
+        <v>phuonganh170402@gmail.com</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0385133762</v>
+      </c>
+      <c r="F105" t="str">
+        <v>https://www.facebook.com/phuonganh170402</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="H105" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="I105" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="J105" t="str" xml:space="preserve">
+        <v xml:space="preserve">- Đạt giải tư cuộc thi NCKH cấp quốc gia_x000d_
+- Tích cực, năng động tham gia các hoạt động câu lạc bộ, thiện nguyện_x000d_
+- Sử dụng thành thạo 2 ngôn ngữ: Tiếng Anh và Tiếng Trung</v>
+      </c>
+      <c r="K105" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652191453240-614765036-Phuong-Anh.pdf</v>
+      </c>
+      <c r="L105" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M105" t="str">
+        <v>PATT</v>
+      </c>
+      <c r="N105" t="str">
+        <v>Nguyễn Thành Trung</v>
+      </c>
+      <c r="O105" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="P105" t="str">
+        <v>26/04/2002</v>
+      </c>
+      <c r="Q105" t="str">
+        <v>trungbxlc1234@gmail.com</v>
+      </c>
+      <c r="R105" t="str">
+        <v>0363235005</v>
+      </c>
+      <c r="S105" t="str">
+        <v>https://www.facebook.com/trungbx12</v>
+      </c>
+      <c r="T105" t="str">
+        <v>Trường Đại học Bách khoa</v>
+      </c>
+      <c r="U105" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="V105" t="str">
+        <v>Hệ thống thông tin quản lý</v>
+      </c>
+      <c r="W105" t="str">
+        <v>- Có khả năng sử dụng thành thạo các ngôn ngữ lập trình như Python, SQL</v>
+      </c>
+      <c r="X105" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652192625087-744738488-Trung.pdf</v>
+      </c>
+      <c r="Y105" t="str">
+        <v>Lê Thị Phương Thảo</v>
+      </c>
+      <c r="Z105" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA105" t="str">
+        <v>08/11/2002</v>
+      </c>
+      <c r="AB105" t="str">
+        <v>lethao08112002@gmail.com</v>
+      </c>
+      <c r="AC105" t="str">
+        <v>0387112002</v>
+      </c>
+      <c r="AD105" t="str">
+        <v>https://www.facebook.com/profile.php?id=100041517741037</v>
+      </c>
+      <c r="AE105" t="str">
+        <v>Trường Đại học Ngoại thương</v>
+      </c>
+      <c r="AF105" t="str">
+        <v>Năm 2</v>
+      </c>
+      <c r="AG105" t="str">
+        <v>Kinh tế quốc tế</v>
+      </c>
+      <c r="AH105" t="str">
+        <v>- Có khả năng sử dụng tốt các kĩ năng của Microsoft Office: Words, Excel, Access</v>
+      </c>
+      <c r="AI105" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652192626326-172696212-Thao-Le.pdf</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Lã Đức Quân</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="C106" t="str">
+        <v>02/03/2001</v>
+      </c>
+      <c r="D106" t="str">
+        <v>k58.1912210166@ftu.edu.vn</v>
+      </c>
+      <c r="E106" t="str">
+        <v>0929532308</v>
+      </c>
+      <c r="F106" t="str">
+        <v>https://www.facebook.com/laducquan.2001/</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="H106" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="I106" t="str">
+        <v>Quản trị Kinh doanh Quốc tế</v>
+      </c>
+      <c r="J106" t="str">
+        <v>Không</v>
+      </c>
+      <c r="K106" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652196328464-434928358-LaDucQuan_CV.pdf</v>
+      </c>
+      <c r="L106" t="str">
+        <v>Đã có team</v>
+      </c>
+      <c r="M106" t="str">
+        <v>Totally Spies</v>
+      </c>
+      <c r="N106" t="str">
+        <v>Nguyễn Thị Linh</v>
+      </c>
+      <c r="O106" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="P106" t="str">
+        <v>24/01/2001</v>
+      </c>
+      <c r="Q106" t="str">
+        <v>linnguyn2001@gmail.com</v>
+      </c>
+      <c r="R106" t="str">
+        <v>0971266958</v>
+      </c>
+      <c r="S106" t="str">
+        <v>https://www.facebook.com/linnguyn2401</v>
+      </c>
+      <c r="T106" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="U106" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="V106" t="str">
+        <v>Quản trị Kinh doanh Quốc tế</v>
+      </c>
+      <c r="W106" t="str">
+        <v>Không</v>
+      </c>
+      <c r="X106" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652196406535-704864645-LINH-NGUYEN_CV.pdf</v>
+      </c>
+      <c r="Y106" t="str">
+        <v>Trần Thị Mỹ Linh</v>
+      </c>
+      <c r="Z106" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="AA106" t="str">
+        <v>05/08/2001</v>
+      </c>
+      <c r="AB106" t="str">
+        <v>linhtranthm@gmail.com</v>
+      </c>
+      <c r="AC106" t="str">
+        <v>0356478073</v>
+      </c>
+      <c r="AD106" t="str">
+        <v>https://www.facebook.com/profile.php?id=100007031566164</v>
+      </c>
+      <c r="AE106" t="str">
+        <v>Đại học Ngoại thương</v>
+      </c>
+      <c r="AF106" t="str">
+        <v>Năm 3</v>
+      </c>
+      <c r="AG106" t="str">
+        <v>Quản trị Kinh doanh Quốc tế</v>
+      </c>
+      <c r="AH106" t="str">
+        <v>Không</v>
+      </c>
+      <c r="AI106" t="str">
+        <v>https://gcontest2022.gecftu.com/manager/cv/uploads/1652196407102-500378259-Resume-Trần-Thị-Mỹ-Linh.pdf</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI106"/>
   </ignoredErrors>
 </worksheet>
 </file>